--- a/2026.xlsx
+++ b/2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\jadwal-imam-tarawih\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA1C73B-18DD-41B0-A681-AAED6AEC66A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9242A2A-FB2D-4809-9B2E-279696D518E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="146">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -461,6 +461,30 @@
   </si>
   <si>
     <t>Keterangan</t>
+  </si>
+  <si>
+    <t>Di DT</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Nomor WA</t>
+  </si>
+  <si>
+    <t>+62 821-5344-2363</t>
+  </si>
+  <si>
+    <t>+62 853-4675-1595</t>
+  </si>
+  <si>
+    <t>Ustadz Rahmad</t>
+  </si>
+  <si>
+    <t>+62 813-4632-6451</t>
+  </si>
+  <si>
+    <t>+62 852-4876-8450</t>
   </si>
 </sst>
 </file>
@@ -507,7 +531,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -530,13 +554,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -576,38 +611,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -617,6 +640,52 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -635,15 +704,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -683,15 +752,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -731,15 +800,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -769,7 +838,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12363450" y="952500"/>
+          <a:off x="9744075" y="0"/>
           <a:ext cx="6343650" cy="6715125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -780,6 +849,22 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F672EF5-F5A6-4182-8647-3A86B3566FAB}" name="Table1" displayName="Table1" ref="A5:E34" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A5:E34" xr:uid="{7F672EF5-F5A6-4182-8647-3A86B3566FAB}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{EDA3354A-D911-4857-BDFD-2A76F68799B6}" name="Nomor" dataDxfId="3">
+      <calculatedColumnFormula>A5+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{EE32957E-B020-43A5-93B6-4F4983A5B8C5}" name="Tanggal" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{474FEB94-AA9D-4225-84A8-CAE68BC78718}" name="Imam"/>
+    <tableColumn id="4" xr3:uid="{E9CF7577-A218-4BFC-BD73-D8F2523F2B45}" name="Keterangan"/>
+    <tableColumn id="5" xr3:uid="{11BF8C20-01CD-49CD-96D6-A73B48384BCF}" name="Nomor WA"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1040,748 +1125,1124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A2:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="33.7109375" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="1"/>
-      <c r="F1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="13" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="J2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="16">
+      <c r="E5" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16" t="s">
+      <c r="B6" s="15">
+        <v>46071</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="I5" s="19" t="s">
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="16">
-        <f t="shared" ref="A6:A33" si="0">A5+1</f>
+    <row r="7" spans="1:10">
+      <c r="A7" s="14">
+        <f t="shared" ref="A7:A34" si="0">A6+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16" t="s">
+      <c r="B7" s="15">
+        <v>46072</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="I6" s="19" t="s">
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="16">
+    <row r="8" spans="1:10">
+      <c r="A8" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16" t="s">
+      <c r="B8" s="15">
+        <v>46073</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="I7" s="19" t="s">
+      <c r="G8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="16">
+    <row r="9" spans="1:10">
+      <c r="A9" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16" t="s">
+      <c r="B9" s="15">
+        <v>46074</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="15">
+        <v>46075</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="I8" s="19" t="s">
+      <c r="G10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="15">
+        <v>46076</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="15">
+        <v>46077</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="15">
+        <v>46078</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="15">
+        <v>46079</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="15">
+        <v>46080</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="16">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16" t="s">
+      <c r="J15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="15">
+        <v>46081</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="15">
+        <v>46082</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="15">
+        <v>46083</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="15">
+        <v>46084</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="14">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B20" s="15">
+        <v>46085</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B21" s="15">
+        <v>46086</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s">
+        <v>128</v>
+      </c>
+      <c r="J21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="14">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B22" s="15">
+        <v>46087</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="14">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B23" s="15">
+        <v>46088</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="14">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="15">
+        <v>46089</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B25" s="15">
+        <v>46090</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" t="s">
+        <v>135</v>
+      </c>
+      <c r="J25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="14">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B26" s="15">
+        <v>46091</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>130</v>
+      </c>
+      <c r="J26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="14">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B27" s="15">
+        <v>46092</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="14">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B28" s="15">
+        <v>46093</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="14">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B29" s="15">
+        <v>46094</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="I9" s="19" t="s">
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="14">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B30" s="15">
+        <v>46095</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="14">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B31" s="15">
+        <v>46096</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16" t="s">
+      <c r="D31" s="16"/>
+      <c r="E31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="I10" s="19" t="s">
+      <c r="G31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="14">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B32" s="15">
+        <v>46097</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="16">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16" t="s">
+      <c r="D32" s="16"/>
+      <c r="E32" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="I11" s="19" t="s">
+      <c r="G32" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="14">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B33" s="15">
+        <v>46098</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="14">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B34" s="15">
+        <v>46099</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="16">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16" t="s">
+      <c r="D34" s="16"/>
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="F35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="J39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="J40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="J41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="J42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="J43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="J44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="J45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="J46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="J47" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="I12" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="16">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16" t="s">
+      <c r="K47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="J48" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="10:11">
+      <c r="J49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="10:11">
+      <c r="J50" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="10:11">
+      <c r="J51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="10:11">
+      <c r="J52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="10:11">
+      <c r="J53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="10:11">
+      <c r="J54" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="10:11">
+      <c r="J55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="10:11">
+      <c r="J56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="10:11">
+      <c r="J57" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="I13" s="19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="16">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="I14" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="16">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="I15" s="19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="16">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="I16" s="19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="16">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="I17" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="16">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="I18" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="I19" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="16">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16" t="s">
+      <c r="K57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="10:11">
+      <c r="J58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="10:11">
+      <c r="J59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="10:11">
+      <c r="J60" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="10:11">
+      <c r="J61" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="10:11">
+      <c r="J62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="10:11">
+      <c r="J63" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="10:11">
+      <c r="J64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="10:11">
+      <c r="J65" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="10:11">
+      <c r="J66" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="I20" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="16">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="I21" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="16">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="15"/>
-      <c r="I22" s="19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="16">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="15"/>
-      <c r="I23" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="16">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="15"/>
-      <c r="I24" s="19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="16">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="15"/>
-      <c r="I25" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="16">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="15"/>
-      <c r="I26" s="19"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="16">
-        <f t="shared" si="0"/>
+      <c r="K66" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="15"/>
-      <c r="I27" s="19"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="16">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="15"/>
-      <c r="I28" s="19"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="16">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B29" s="17"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="15"/>
-      <c r="I29" s="21"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="16">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="15"/>
-      <c r="I30" s="21"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="16">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="16">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="15"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="16">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="16">
-        <v>30</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="15"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="F39" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="F40" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="F41" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="F42" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="F43" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="F44" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="F45" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="F46" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="F47" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="F48" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="6:7">
-      <c r="F49" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="6:7">
-      <c r="F50" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="6:7">
-      <c r="F51" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="6:7">
-      <c r="F52" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="6:7">
-      <c r="F53" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="6:7">
-      <c r="F54" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="6:7">
-      <c r="F55" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="6:7">
-      <c r="F56" s="16" t="s">
+    </row>
+    <row r="67" spans="10:11">
+      <c r="J67" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G56" s="15" t="s">
+      <c r="K67" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="6:7">
-      <c r="F57" s="16" t="s">
+    <row r="68" spans="10:11">
+      <c r="J68" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G57" s="15" t="s">
+      <c r="K68" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="6:7">
-      <c r="F58" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="6:7">
-      <c r="F59" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="6:7">
-      <c r="F60" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="6:7">
-      <c r="F61" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="6:7">
-      <c r="F62" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="6:7">
-      <c r="F63" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="6:7">
-      <c r="F64" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="6:7">
-      <c r="F65" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="6:7">
-      <c r="F66" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="6:7">
-      <c r="F67" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="6:7">
-      <c r="F68" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I5:I24">
-    <sortCondition ref="I24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J6:J27">
+    <sortCondition ref="J6:J27"/>
   </sortState>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
+  <conditionalFormatting sqref="H6:H34">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>C6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/2026.xlsx
+++ b/2026.xlsx
@@ -5,29 +5,43 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\jadwal-imam-tarawih\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ASATIDZ\Zen\jadwal-imam-tarawih\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9242A2A-FB2D-4809-9B2E-279696D518E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC2A748-A050-4914-AA7F-9AFCB66201D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pak Gatot" sheetId="2" r:id="rId1"/>
-    <sheet name="DT" sheetId="1" r:id="rId2"/>
-    <sheet name="Olah - Pak Gatot" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
-    <sheet name="Olah - Santri" sheetId="4" r:id="rId5"/>
+    <sheet name="Nomor WA" sheetId="6" r:id="rId2"/>
+    <sheet name="DT" sheetId="1" r:id="rId3"/>
+    <sheet name="Olah - Pak Gatot" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Olah - Santri" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">DT!$A$1:$D$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">DT!$A$1:$D$36</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="168">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -472,19 +486,85 @@
     <t>Nomor WA</t>
   </si>
   <si>
-    <t>+62 821-5344-2363</t>
-  </si>
-  <si>
-    <t>+62 853-4675-1595</t>
-  </si>
-  <si>
     <t>Ustadz Rahmad</t>
   </si>
   <si>
-    <t>+62 813-4632-6451</t>
-  </si>
-  <si>
-    <t>+62 852-4876-8450</t>
+    <t>Assalamu'alaykum, ustadz menyampaikan rancangan jadwal Imam tarawih di Musholla Baitul Hilmi Monas</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
+  </si>
+  <si>
+    <t>Ustadz Wahap</t>
+  </si>
+  <si>
+    <t>Wahap Apdoellah</t>
+  </si>
+  <si>
+    <t>Ustadz Danik</t>
+  </si>
+  <si>
+    <t>082320040021</t>
+  </si>
+  <si>
+    <t>082229432434</t>
+  </si>
+  <si>
+    <t>081341459342</t>
+  </si>
+  <si>
+    <t>085754227966</t>
+  </si>
+  <si>
+    <t>085388898918</t>
+  </si>
+  <si>
+    <t>082153442363</t>
+  </si>
+  <si>
+    <t>082274180206</t>
+  </si>
+  <si>
+    <t>082254991016</t>
+  </si>
+  <si>
+    <t>082252826688</t>
+  </si>
+  <si>
+    <t>082123226368</t>
+  </si>
+  <si>
+    <t>085389333869</t>
+  </si>
+  <si>
+    <t>081346326451</t>
+  </si>
+  <si>
+    <t>081351655536</t>
+  </si>
+  <si>
+    <t>085346751595</t>
+  </si>
+  <si>
+    <t>082255065550</t>
+  </si>
+  <si>
+    <t>085345800531</t>
+  </si>
+  <si>
+    <t>08985520616</t>
+  </si>
+  <si>
+    <t>081545143654</t>
+  </si>
+  <si>
+    <t>081324698218</t>
+  </si>
+  <si>
+    <t>081350170682</t>
+  </si>
+  <si>
+    <t>Nama</t>
   </si>
 </sst>
 </file>
@@ -494,12 +574,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -510,8 +597,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,8 +625,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -565,20 +666,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -602,41 +731,83 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -650,6 +821,135 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
@@ -806,8 +1106,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -852,18 +1152,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F672EF5-F5A6-4182-8647-3A86B3566FAB}" name="Table1" displayName="Table1" ref="A5:E34" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F672EF5-F5A6-4182-8647-3A86B3566FAB}" name="Table1" displayName="Table1" ref="A5:E34" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A5:E34" xr:uid="{7F672EF5-F5A6-4182-8647-3A86B3566FAB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EDA3354A-D911-4857-BDFD-2A76F68799B6}" name="Nomor" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{EDA3354A-D911-4857-BDFD-2A76F68799B6}" name="Nomor" dataDxfId="10">
       <calculatedColumnFormula>A5+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EE32957E-B020-43A5-93B6-4F4983A5B8C5}" name="Tanggal" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{EE32957E-B020-43A5-93B6-4F4983A5B8C5}" name="Tanggal" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{474FEB94-AA9D-4225-84A8-CAE68BC78718}" name="Imam"/>
     <tableColumn id="4" xr3:uid="{E9CF7577-A218-4BFC-BD73-D8F2523F2B45}" name="Keterangan"/>
-    <tableColumn id="5" xr3:uid="{11BF8C20-01CD-49CD-96D6-A73B48384BCF}" name="Nomor WA"/>
+    <tableColumn id="5" xr3:uid="{11BF8C20-01CD-49CD-96D6-A73B48384BCF}" name="Nomor WA" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B463BB1F-E51B-43C0-AA2F-E1D6DB3DDCF7}" name="Table2" displayName="Table2" ref="A1:B30" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="7">
+  <autoFilter ref="A1:B30" xr:uid="{B463BB1F-E51B-43C0-AA2F-E1D6DB3DDCF7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+    <sortCondition ref="A1:A30"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A0750327-460A-4848-BB77-C819467CC83E}" name="Nama" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{97DD37ED-3D7B-4850-8D30-26BB8E10C618}" name="Nomor WA" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1128,16 +1442,21 @@
   <dimension ref="A2:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="8" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1148,10 +1467,12 @@
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="J2" t="s">
         <v>82</v>
       </c>
@@ -1163,46 +1484,47 @@
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="14">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>46071</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" t="s">
-        <v>84</v>
+      <c r="D6" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
@@ -1218,19 +1540,19 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="14">
+      <c r="A7" s="5">
         <f t="shared" ref="A7:A34" si="0">A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>46072</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" t="s">
-        <v>86</v>
+      <c r="C7" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>24</v>
@@ -1246,19 +1568,21 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="14">
+      <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>46073</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" t="s">
-        <v>45</v>
+      <c r="D8" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>29</v>
@@ -1274,19 +1598,21 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="14">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>46074</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" t="s">
-        <v>87</v>
+      <c r="D9" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>32</v>
@@ -1302,19 +1628,21 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="14">
+      <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>46075</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" t="s">
-        <v>89</v>
+      <c r="D10" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>33</v>
@@ -1330,19 +1658,19 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="14">
+      <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>46076</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16" t="s">
-        <v>141</v>
+      <c r="D11" s="17"/>
+      <c r="E11" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>37</v>
@@ -1358,19 +1686,21 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="14">
+      <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>46077</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" t="s">
-        <v>72</v>
+      <c r="D12" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>30</v>
@@ -1386,19 +1716,19 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="14">
+      <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>46078</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" t="s">
-        <v>17</v>
+      <c r="D13" s="17"/>
+      <c r="E13" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>57</v>
@@ -1414,19 +1744,21 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="14">
+      <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>46079</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" t="s">
-        <v>92</v>
+      <c r="D14" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>43</v>
@@ -1442,19 +1774,21 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="14">
+      <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>46080</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" t="s">
-        <v>38</v>
+      <c r="D15" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>42</v>
@@ -1470,19 +1804,19 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="14">
+      <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>46081</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16" t="s">
-        <v>87</v>
+      <c r="D16" s="17"/>
+      <c r="E16" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>30</v>
@@ -1498,19 +1832,21 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="14">
+      <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>46082</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16" t="s">
-        <v>64</v>
+      <c r="D17" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>43</v>
@@ -1526,19 +1862,19 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="14">
+      <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>46083</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16" t="s">
-        <v>144</v>
+      <c r="C18" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>52</v>
@@ -1554,19 +1890,21 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="14">
+      <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>46084</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" t="s">
-        <v>49</v>
+      <c r="D19" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>32</v>
@@ -1582,19 +1920,19 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="14">
+      <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>46085</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16" t="s">
-        <v>142</v>
+      <c r="D20" s="17"/>
+      <c r="E20" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>30</v>
@@ -1610,19 +1948,19 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="14">
+      <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <v>46086</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16" t="s">
-        <v>145</v>
+      <c r="C21" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>55</v>
@@ -1638,19 +1976,19 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="14">
+      <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>46087</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16" t="s">
-        <v>111</v>
+      <c r="D22" s="17"/>
+      <c r="E22" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>56</v>
@@ -1666,19 +2004,19 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="14">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B23" s="15">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B23" s="14">
         <v>46088</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" t="s">
-        <v>35</v>
+      <c r="D23" s="17"/>
+      <c r="E23" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>51</v>
@@ -1694,19 +2032,21 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="14">
+      <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <v>46089</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" t="s">
-        <v>91</v>
+      <c r="D24" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>46</v>
@@ -1722,19 +2062,21 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="14">
+      <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="14">
         <v>46090</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" t="s">
-        <v>88</v>
+      <c r="D25" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>19</v>
@@ -1750,19 +2092,19 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="14">
+      <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <v>46091</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" t="s">
-        <v>23</v>
+      <c r="D26" s="17"/>
+      <c r="E26" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>24</v>
@@ -1778,19 +2120,19 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="14">
+      <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="14">
         <v>46092</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" t="s">
-        <v>84</v>
+      <c r="C27" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>46</v>
@@ -1803,19 +2145,21 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="14">
+      <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="16">
         <v>46093</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" t="s">
-        <v>86</v>
+      <c r="C28" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>33</v>
@@ -1828,19 +2172,21 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="14">
+      <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="16">
         <v>46094</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" t="s">
-        <v>45</v>
+      <c r="D29" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>37</v>
@@ -1853,19 +2199,21 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="14">
+      <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="16">
         <v>46095</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" t="s">
-        <v>87</v>
+      <c r="D30" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>32</v>
@@ -1876,21 +2224,24 @@
       <c r="H30" t="s">
         <v>34</v>
       </c>
+      <c r="J30" s="15"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="14">
+      <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="16">
         <v>46096</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" t="s">
-        <v>89</v>
+      <c r="D31" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>30</v>
@@ -1903,19 +2254,19 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="14">
+      <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="16">
         <v>46097</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16" t="s">
-        <v>141</v>
+      <c r="D32" s="17"/>
+      <c r="E32" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>42</v>
@@ -1928,19 +2279,18 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="14">
+      <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="16">
         <v>46098</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" t="s">
-        <v>17</v>
+      <c r="E33" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>51</v>
@@ -1953,19 +2303,21 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="14">
+      <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="16">
         <v>46099</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" t="s">
-        <v>72</v>
+      <c r="D34" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>51</v>
@@ -1984,6 +2336,19 @@
       <c r="G35" t="s">
         <v>92</v>
       </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="B36" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="39" spans="1:11">
       <c r="J39" s="3" t="s">
@@ -2229,13 +2594,19 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J6:J27">
     <sortCondition ref="J6:J27"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B36:J36"/>
   </mergeCells>
   <conditionalFormatting sqref="H6:H34">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>C6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C34">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>IF(C6="", TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2247,6 +2618,236 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505D52D1-1B90-43A7-96C4-75AF4E9C7CB3}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="26"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="19"/>
+      <c r="B24" s="26"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="19"/>
+      <c r="B25" s="26"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="20"/>
+      <c r="B26" s="27"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="26"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="19"/>
+      <c r="B28" s="26"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="19"/>
+      <c r="B29" s="26"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
@@ -3235,7 +3836,7 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C34">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3244,7 +3845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
@@ -4009,7 +4610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -4283,7 +4884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>

--- a/2026.xlsx
+++ b/2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ASATIDZ\Zen\jadwal-imam-tarawih\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC2A748-A050-4914-AA7F-9AFCB66201D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5004C2B-A633-437B-B8A0-ABA7FF04ED8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="168">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -700,7 +700,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -737,37 +737,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -797,17 +782,23 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -831,34 +822,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -947,6 +910,24 @@
           <color theme="9"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1152,30 +1133,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F672EF5-F5A6-4182-8647-3A86B3566FAB}" name="Table1" displayName="Table1" ref="A5:E34" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F672EF5-F5A6-4182-8647-3A86B3566FAB}" name="Table1" displayName="Table1" ref="A5:E34" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A5:E34" xr:uid="{7F672EF5-F5A6-4182-8647-3A86B3566FAB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EDA3354A-D911-4857-BDFD-2A76F68799B6}" name="Nomor" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{EDA3354A-D911-4857-BDFD-2A76F68799B6}" name="Nomor" dataDxfId="9">
       <calculatedColumnFormula>A5+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EE32957E-B020-43A5-93B6-4F4983A5B8C5}" name="Tanggal" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{EE32957E-B020-43A5-93B6-4F4983A5B8C5}" name="Tanggal" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{474FEB94-AA9D-4225-84A8-CAE68BC78718}" name="Imam"/>
     <tableColumn id="4" xr3:uid="{E9CF7577-A218-4BFC-BD73-D8F2523F2B45}" name="Keterangan"/>
-    <tableColumn id="5" xr3:uid="{11BF8C20-01CD-49CD-96D6-A73B48384BCF}" name="Nomor WA" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{11BF8C20-01CD-49CD-96D6-A73B48384BCF}" name="Nomor WA" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B463BB1F-E51B-43C0-AA2F-E1D6DB3DDCF7}" name="Table2" displayName="Table2" ref="A1:B30" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B463BB1F-E51B-43C0-AA2F-E1D6DB3DDCF7}" name="Table2" displayName="Table2" ref="A1:B30" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="A1:B30" xr:uid="{B463BB1F-E51B-43C0-AA2F-E1D6DB3DDCF7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A0750327-460A-4848-BB77-C819467CC83E}" name="Nama" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{97DD37ED-3D7B-4850-8D30-26BB8E10C618}" name="Nomor WA" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{A0750327-460A-4848-BB77-C819467CC83E}" name="Nama" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{97DD37ED-3D7B-4850-8D30-26BB8E10C618}" name="Nomor WA" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1442,7 +1423,7 @@
   <dimension ref="A2:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1461,13 +1442,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
@@ -1478,13 +1459,13 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="23"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
@@ -1501,7 +1482,7 @@
       <c r="D5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="19" t="s">
         <v>140</v>
       </c>
       <c r="F5" s="1"/>
@@ -1514,13 +1495,13 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>46071</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="15" t="s">
         <v>143</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -1544,16 +1525,11 @@
         <f t="shared" ref="A7:A34" si="0">A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>46072</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="11" t="s">
-        <v>148</v>
-      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="15"/>
       <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1572,13 +1548,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>46073</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="15" t="s">
         <v>143</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -1602,13 +1578,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>46074</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="15" t="s">
         <v>143</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -1632,13 +1608,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>46075</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="15" t="s">
         <v>143</v>
       </c>
       <c r="E10" s="11" t="s">
@@ -1662,13 +1638,15 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>46076</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" t="s">
+        <v>143</v>
+      </c>
       <c r="E11" s="11" t="s">
         <v>152</v>
       </c>
@@ -1690,13 +1668,13 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>46077</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="15" t="s">
         <v>143</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -1720,13 +1698,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>46078</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="17"/>
       <c r="E13" s="11" t="s">
         <v>154</v>
       </c>
@@ -1748,13 +1725,13 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>46079</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="15" t="s">
         <v>143</v>
       </c>
       <c r="E14" s="11" t="s">
@@ -1778,13 +1755,13 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>46080</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="15" t="s">
         <v>143</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -1808,13 +1785,15 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>46081</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" t="s">
+        <v>143</v>
+      </c>
       <c r="E16" s="11" t="s">
         <v>150</v>
       </c>
@@ -1836,13 +1815,13 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>46082</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="15" t="s">
         <v>143</v>
       </c>
       <c r="E17" s="11" t="s">
@@ -1866,13 +1845,12 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>46083</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="17"/>
       <c r="E18" s="11" t="s">
         <v>158</v>
       </c>
@@ -1894,13 +1872,13 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>46084</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="15" t="s">
         <v>143</v>
       </c>
       <c r="E19" s="11" t="s">
@@ -1924,13 +1902,12 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>46085</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="17"/>
       <c r="E20" s="11" t="s">
         <v>160</v>
       </c>
@@ -1952,13 +1929,15 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>46086</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="17"/>
+      <c r="D21" t="s">
+        <v>143</v>
+      </c>
       <c r="E21" s="11" t="s">
         <v>155</v>
       </c>
@@ -1980,13 +1959,12 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>46087</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="17"/>
       <c r="E22" s="11" t="s">
         <v>161</v>
       </c>
@@ -2008,13 +1986,15 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <v>46088</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="17"/>
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
       <c r="E23" s="11" t="s">
         <v>162</v>
       </c>
@@ -2036,13 +2016,13 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <v>46089</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="15" t="s">
         <v>143</v>
       </c>
       <c r="E24" s="11" t="s">
@@ -2066,13 +2046,13 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <v>46090</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="15" t="s">
         <v>143</v>
       </c>
       <c r="E25" s="11" t="s">
@@ -2096,13 +2076,12 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>46091</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D26" s="17"/>
       <c r="E26" s="11" t="s">
         <v>165</v>
       </c>
@@ -2124,16 +2103,11 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <v>46092</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="11" t="s">
-        <v>148</v>
-      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="15"/>
       <c r="F27" s="3" t="s">
         <v>46</v>
       </c>
@@ -2149,13 +2123,13 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="14">
         <v>46093</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="15" t="s">
         <v>143</v>
       </c>
       <c r="E28" s="11" t="s">
@@ -2176,13 +2150,13 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="14">
         <v>46094</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="15" t="s">
         <v>143</v>
       </c>
       <c r="E29" s="11" t="s">
@@ -2203,13 +2177,13 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="14">
         <v>46095</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="15" t="s">
         <v>143</v>
       </c>
       <c r="E30" s="11" t="s">
@@ -2224,20 +2198,20 @@
       <c r="H30" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="15"/>
+      <c r="J30" s="12"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="14">
         <v>46096</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="15" t="s">
         <v>143</v>
       </c>
       <c r="E31" s="11" t="s">
@@ -2258,15 +2232,8 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="14">
         <v>46097</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="11" t="s">
-        <v>152</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>42</v>
@@ -2283,10 +2250,10 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="14">
         <v>46098</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" t="s">
         <v>101</v>
       </c>
       <c r="E33" s="11" t="s">
@@ -2307,13 +2274,13 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="14">
         <v>46099</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="15" t="s">
         <v>143</v>
       </c>
       <c r="E34" s="11" t="s">
@@ -2338,17 +2305,17 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
     </row>
     <row r="39" spans="1:11">
       <c r="J39" s="3" t="s">
@@ -2599,14 +2566,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="B36:J36"/>
   </mergeCells>
-  <conditionalFormatting sqref="H6:H34">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>C6</formula>
+  <conditionalFormatting sqref="C6:C34">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>IF(C6="", TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C34">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>IF(C6="", TRUE, FALSE)</formula>
+  <conditionalFormatting sqref="H6:H34">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>C6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2632,212 +2599,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="21" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="21" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="21" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="21" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="21" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="22" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="21" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="22" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="21" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="22" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="21" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="22" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="21" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="22" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="21" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="21" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="21" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="22" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="21" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="21" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="26" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="21"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="21"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="21"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="22"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="21"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="21"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="21"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2872,12 +2839,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2888,12 +2855,12 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -3836,7 +3803,7 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C34">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4908,11 +4875,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -4922,11 +4889,11 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>

--- a/2026.xlsx
+++ b/2026.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ASATIDZ\Zen\jadwal-imam-tarawih\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\jadwal-imam-tarawih\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5004C2B-A633-437B-B8A0-ABA7FF04ED8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DAF77F-D82C-4800-86EC-7084F8EB8ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pak Gatot" sheetId="2" r:id="rId1"/>
@@ -23,25 +23,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">DT!$A$1:$D$36</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="168">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -798,7 +785,7 @@
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -818,7 +805,7 @@
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -1423,7 +1410,7 @@
   <dimension ref="A2:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1528,8 +1515,15 @@
       <c r="B7" s="13">
         <v>46072</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1704,6 +1698,9 @@
       <c r="C13" s="12" t="s">
         <v>101</v>
       </c>
+      <c r="D13" t="s">
+        <v>143</v>
+      </c>
       <c r="E13" s="11" t="s">
         <v>154</v>
       </c>
@@ -2082,6 +2079,9 @@
       <c r="C26" s="12" t="s">
         <v>135</v>
       </c>
+      <c r="D26" t="s">
+        <v>143</v>
+      </c>
       <c r="E26" s="11" t="s">
         <v>165</v>
       </c>
@@ -2106,8 +2106,13 @@
       <c r="B27" s="13">
         <v>46092</v>
       </c>
-      <c r="C27" s="12"/>
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
       <c r="D27" s="15"/>
+      <c r="E27" s="11" t="s">
+        <v>150</v>
+      </c>
       <c r="F27" s="3" t="s">
         <v>46</v>
       </c>
@@ -2235,6 +2240,13 @@
       <c r="B32" s="14">
         <v>46097</v>
       </c>
+      <c r="C32" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="F32" s="3" t="s">
         <v>42</v>
       </c>
@@ -2255,6 +2267,9 @@
       </c>
       <c r="C33" t="s">
         <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>143</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>154</v>
@@ -2567,12 +2582,12 @@
     <mergeCell ref="B36:J36"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:C34">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>IF(C6="", TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H34">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>C6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3803,7 +3818,7 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C34">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2026.xlsx
+++ b/2026.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\jadwal-imam-tarawih\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DAF77F-D82C-4800-86EC-7084F8EB8ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C49F18-17D7-4E39-AD40-81161E0457A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pak Gatot" sheetId="2" r:id="rId1"/>
-    <sheet name="Nomor WA" sheetId="6" r:id="rId2"/>
-    <sheet name="DT" sheetId="1" r:id="rId3"/>
-    <sheet name="Olah - Pak Gatot" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
-    <sheet name="Olah - Santri" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
+    <sheet name="Nomor WA" sheetId="6" r:id="rId3"/>
+    <sheet name="DT" sheetId="1" r:id="rId4"/>
+    <sheet name="Olah - Pak Gatot" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
+    <sheet name="Olah - Santri" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">DT!$A$1:$D$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">DT!$A$1:$D$36</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="170">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -553,6 +554,12 @@
   <si>
     <t>Nama</t>
   </si>
+  <si>
+    <t>085156952623</t>
+  </si>
+  <si>
+    <t>Pengulangan</t>
+  </si>
 </sst>
 </file>
 
@@ -561,12 +568,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,14 +701,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -718,68 +732,98 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="21">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -805,10 +849,162 @@
         <color rgb="FF9C0006"/>
       </font>
       <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -915,9 +1111,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
@@ -1120,30 +1313,63 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F672EF5-F5A6-4182-8647-3A86B3566FAB}" name="Table1" displayName="Table1" ref="A5:E34" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F672EF5-F5A6-4182-8647-3A86B3566FAB}" name="Table1" displayName="Table1" ref="A5:E34" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="A5:E34" xr:uid="{7F672EF5-F5A6-4182-8647-3A86B3566FAB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EDA3354A-D911-4857-BDFD-2A76F68799B6}" name="Nomor" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{EDA3354A-D911-4857-BDFD-2A76F68799B6}" name="Nomor" dataDxfId="19">
       <calculatedColumnFormula>A5+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EE32957E-B020-43A5-93B6-4F4983A5B8C5}" name="Tanggal" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{EE32957E-B020-43A5-93B6-4F4983A5B8C5}" name="Tanggal" dataDxfId="18"/>
     <tableColumn id="3" xr3:uid="{474FEB94-AA9D-4225-84A8-CAE68BC78718}" name="Imam"/>
     <tableColumn id="4" xr3:uid="{E9CF7577-A218-4BFC-BD73-D8F2523F2B45}" name="Keterangan"/>
-    <tableColumn id="5" xr3:uid="{11BF8C20-01CD-49CD-96D6-A73B48384BCF}" name="Nomor WA" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{11BF8C20-01CD-49CD-96D6-A73B48384BCF}" name="Nomor WA" dataDxfId="7">
+      <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B463BB1F-E51B-43C0-AA2F-E1D6DB3DDCF7}" name="Table2" displayName="Table2" ref="A1:B30" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D9530C33-B6B5-4115-9923-45D7AFE34439}" name="Table35" displayName="Table35" ref="F38:H56" totalsRowShown="0" tableBorderDxfId="9">
+  <autoFilter ref="F38:H56" xr:uid="{D9530C33-B6B5-4115-9923-45D7AFE34439}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F39:G56">
+    <sortCondition ref="F1:F19"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F724475A-A50A-4C3B-815A-F4FD22C8480A}" name="Nama"/>
+    <tableColumn id="2" xr3:uid="{FF44FB9B-A317-41C3-9E91-41A8D60563FD}" name="Nomor WA" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{1A922AE0-1ED0-4A04-AAF7-5D85C9B067EF}" name="Pengulangan" dataDxfId="6">
+      <calculatedColumnFormula>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2A622B11-EC89-4AF0-9DF4-FB14C2B1C37F}" name="Table3" displayName="Table3" ref="A1:B19" totalsRowShown="0" tableBorderDxfId="13">
+  <autoFilter ref="A1:B19" xr:uid="{2A622B11-EC89-4AF0-9DF4-FB14C2B1C37F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B19">
+    <sortCondition ref="A1:A19"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{2AB0227A-689E-434E-BE31-2D3674F24B79}" name="Nama"/>
+    <tableColumn id="2" xr3:uid="{BBECE007-5A72-4694-9062-83FE01F91734}" name="Nomor WA" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B463BB1F-E51B-43C0-AA2F-E1D6DB3DDCF7}" name="Table2" displayName="Table2" ref="A1:B30" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="A1:B30" xr:uid="{B463BB1F-E51B-43C0-AA2F-E1D6DB3DDCF7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A0750327-460A-4848-BB77-C819467CC83E}" name="Nama" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{97DD37ED-3D7B-4850-8D30-26BB8E10C618}" name="Nomor WA" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{A0750327-460A-4848-BB77-C819467CC83E}" name="Nama" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{97DD37ED-3D7B-4850-8D30-26BB8E10C618}" name="Nomor WA" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1407,10 +1633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:K68"/>
+  <dimension ref="A2:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1419,7 +1645,7 @@
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="36" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
@@ -1429,13 +1655,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
@@ -1446,13 +1672,13 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="18"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
@@ -1469,7 +1695,7 @@
       <c r="D5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="35" t="s">
         <v>140</v>
       </c>
       <c r="F5" s="1"/>
@@ -1491,8 +1717,9 @@
       <c r="D6" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>147</v>
+      <c r="E6" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>082320040021</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
@@ -1521,8 +1748,9 @@
       <c r="D7" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>164</v>
+      <c r="E7" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>081545143654</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>24</v>
@@ -1551,8 +1779,9 @@
       <c r="D8" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>149</v>
+      <c r="E8" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>081341459342</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>29</v>
@@ -1581,8 +1810,9 @@
       <c r="D9" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>150</v>
+      <c r="E9" s="37" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>085156952623</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>32</v>
@@ -1611,8 +1841,9 @@
       <c r="D10" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>151</v>
+      <c r="E10" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>085388898918</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>33</v>
@@ -1641,8 +1872,9 @@
       <c r="D11" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>152</v>
+      <c r="E11" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>082153442363</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>37</v>
@@ -1671,14 +1903,15 @@
       <c r="D12" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>153</v>
+      <c r="E12" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>082274180206</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s">
         <v>53</v>
@@ -1701,8 +1934,9 @@
       <c r="D13" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>154</v>
+      <c r="E13" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>082254991016</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>57</v>
@@ -1731,8 +1965,9 @@
       <c r="D14" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>155</v>
+      <c r="E14" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>082252826688</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>43</v>
@@ -1761,8 +1996,9 @@
       <c r="D15" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>156</v>
+      <c r="E15" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>082123226368</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>42</v>
@@ -1791,8 +2027,9 @@
       <c r="D16" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>150</v>
+      <c r="E16" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>085754227966</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>30</v>
@@ -1821,8 +2058,9 @@
       <c r="D17" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>157</v>
+      <c r="E17" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>085389333869</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>43</v>
@@ -1848,8 +2086,9 @@
       <c r="C18" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>158</v>
+      <c r="E18" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>081346326451</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>52</v>
@@ -1878,8 +2117,9 @@
       <c r="D19" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>159</v>
+      <c r="E19" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>081351655536</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>32</v>
@@ -1902,11 +2142,12 @@
       <c r="B20" s="13">
         <v>46085</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>160</v>
+      <c r="C20" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>081324698218</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>30</v>
@@ -1935,8 +2176,9 @@
       <c r="D21" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>155</v>
+      <c r="E21" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>082252826688</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>55</v>
@@ -1959,11 +2201,12 @@
       <c r="B22" s="13">
         <v>46087</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>161</v>
+      <c r="C22" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>081324698218</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>56</v>
@@ -1992,8 +2235,9 @@
       <c r="D23" t="s">
         <v>143</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>162</v>
+      <c r="E23" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>085345800531</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>51</v>
@@ -2022,8 +2266,9 @@
       <c r="D24" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>163</v>
+      <c r="E24" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>08985520616</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>46</v>
@@ -2052,8 +2297,9 @@
       <c r="D25" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>164</v>
+      <c r="E25" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>081545143654</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>19</v>
@@ -2082,8 +2328,9 @@
       <c r="D26" t="s">
         <v>143</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>165</v>
+      <c r="E26" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>081324698218</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>24</v>
@@ -2109,9 +2356,12 @@
       <c r="C27" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="11" t="s">
-        <v>150</v>
+      <c r="D27" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="37" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>085156952623</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>46</v>
@@ -2137,8 +2387,9 @@
       <c r="D28" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>166</v>
+      <c r="E28" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>081350170682</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>33</v>
@@ -2164,8 +2415,9 @@
       <c r="D29" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>149</v>
+      <c r="E29" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>081341459342</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>37</v>
@@ -2191,8 +2443,9 @@
       <c r="D30" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>150</v>
+      <c r="E30" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>085156952623</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>32</v>
@@ -2219,8 +2472,9 @@
       <c r="D31" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>151</v>
+      <c r="E31" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>085388898918</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>30</v>
@@ -2243,9 +2497,12 @@
       <c r="C32" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="11" t="s">
-        <v>156</v>
+      <c r="D32" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>082123226368</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>42</v>
@@ -2271,8 +2528,9 @@
       <c r="D33" t="s">
         <v>143</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>154</v>
+      <c r="E33" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>082254991016</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>51</v>
@@ -2298,8 +2556,9 @@
       <c r="D34" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>153</v>
+      <c r="E34" s="36" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>082274180206</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>51</v>
@@ -2320,19 +2579,40 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="F38" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" t="s">
+        <v>140</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="39" spans="1:11">
+      <c r="F39" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="H39">
+        <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
+        <v>1</v>
+      </c>
       <c r="J39" s="3" t="s">
         <v>19</v>
       </c>
@@ -2341,6 +2621,18 @@
       </c>
     </row>
     <row r="40" spans="1:11">
+      <c r="C40" s="30"/>
+      <c r="D40" s="31"/>
+      <c r="F40" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="H40">
+        <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
+        <v>2</v>
+      </c>
       <c r="J40" s="3" t="s">
         <v>24</v>
       </c>
@@ -2349,6 +2641,18 @@
       </c>
     </row>
     <row r="41" spans="1:11">
+      <c r="C41" s="29"/>
+      <c r="D41" s="32"/>
+      <c r="F41" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41">
+        <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
+        <v>1</v>
+      </c>
       <c r="J41" s="3" t="s">
         <v>29</v>
       </c>
@@ -2357,6 +2661,18 @@
       </c>
     </row>
     <row r="42" spans="1:11">
+      <c r="C42" s="30"/>
+      <c r="D42" s="31"/>
+      <c r="F42" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="H42">
+        <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
+        <v>3</v>
+      </c>
       <c r="J42" s="3" t="s">
         <v>32</v>
       </c>
@@ -2365,6 +2681,18 @@
       </c>
     </row>
     <row r="43" spans="1:11">
+      <c r="C43" s="29"/>
+      <c r="D43" s="33"/>
+      <c r="F43" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="H43">
+        <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
+        <v>2</v>
+      </c>
       <c r="J43" s="3" t="s">
         <v>33</v>
       </c>
@@ -2373,6 +2701,18 @@
       </c>
     </row>
     <row r="44" spans="1:11">
+      <c r="C44" s="30"/>
+      <c r="D44" s="31"/>
+      <c r="F44" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G44" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="H44">
+        <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
+        <v>1</v>
+      </c>
       <c r="J44" s="3" t="s">
         <v>37</v>
       </c>
@@ -2381,6 +2721,18 @@
       </c>
     </row>
     <row r="45" spans="1:11">
+      <c r="C45" s="29"/>
+      <c r="D45" s="32"/>
+      <c r="F45" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="H45">
+        <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
+        <v>2</v>
+      </c>
       <c r="J45" s="3" t="s">
         <v>30</v>
       </c>
@@ -2389,6 +2741,18 @@
       </c>
     </row>
     <row r="46" spans="1:11">
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="F46" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="H46">
+        <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
+        <v>2</v>
+      </c>
       <c r="J46" s="3" t="s">
         <v>57</v>
       </c>
@@ -2397,6 +2761,18 @@
       </c>
     </row>
     <row r="47" spans="1:11">
+      <c r="C47" s="29"/>
+      <c r="D47" s="32"/>
+      <c r="F47" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="H47">
+        <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
+        <v>2</v>
+      </c>
       <c r="J47" s="3" t="s">
         <v>43</v>
       </c>
@@ -2405,6 +2781,18 @@
       </c>
     </row>
     <row r="48" spans="1:11">
+      <c r="C48" s="30"/>
+      <c r="D48" s="31"/>
+      <c r="F48" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="H48">
+        <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
+        <v>2</v>
+      </c>
       <c r="J48" s="3" t="s">
         <v>42</v>
       </c>
@@ -2412,7 +2800,19 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="10:11">
+    <row r="49" spans="3:11">
+      <c r="C49" s="29"/>
+      <c r="D49" s="32"/>
+      <c r="F49" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="H49">
+        <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
+        <v>1</v>
+      </c>
       <c r="J49" s="3" t="s">
         <v>30</v>
       </c>
@@ -2420,7 +2820,19 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="10:11">
+    <row r="50" spans="3:11">
+      <c r="C50" s="30"/>
+      <c r="D50" s="31"/>
+      <c r="F50" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="H50">
+        <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
+        <v>1</v>
+      </c>
       <c r="J50" s="3" t="s">
         <v>43</v>
       </c>
@@ -2428,7 +2840,19 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="10:11">
+    <row r="51" spans="3:11">
+      <c r="C51" s="29"/>
+      <c r="D51" s="32"/>
+      <c r="F51" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="H51">
+        <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
+        <v>1</v>
+      </c>
       <c r="J51" s="3" t="s">
         <v>52</v>
       </c>
@@ -2436,7 +2860,19 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="10:11">
+    <row r="52" spans="3:11">
+      <c r="C52" s="30"/>
+      <c r="D52" s="31"/>
+      <c r="F52" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="H52">
+        <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
+        <v>1</v>
+      </c>
       <c r="J52" s="3" t="s">
         <v>32</v>
       </c>
@@ -2444,7 +2880,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="10:11">
+    <row r="53" spans="3:11">
+      <c r="C53" s="29"/>
+      <c r="D53" s="32"/>
+      <c r="F53" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="H53">
+        <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
+        <v>1</v>
+      </c>
       <c r="J53" s="3" t="s">
         <v>30</v>
       </c>
@@ -2452,7 +2900,19 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="10:11">
+    <row r="54" spans="3:11">
+      <c r="C54" s="29"/>
+      <c r="D54" s="32"/>
+      <c r="F54" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="H54">
+        <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
+        <v>1</v>
+      </c>
       <c r="J54" s="3" t="s">
         <v>55</v>
       </c>
@@ -2460,7 +2920,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="10:11">
+    <row r="55" spans="3:11">
+      <c r="C55" s="29"/>
+      <c r="D55" s="32"/>
+      <c r="F55" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="H55">
+        <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
+        <v>3</v>
+      </c>
       <c r="J55" s="3" t="s">
         <v>56</v>
       </c>
@@ -2468,7 +2940,19 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="10:11">
+    <row r="56" spans="3:11">
+      <c r="C56" s="30"/>
+      <c r="D56" s="31"/>
+      <c r="F56" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G56" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="H56">
+        <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
+        <v>2</v>
+      </c>
       <c r="J56" s="3" t="s">
         <v>51</v>
       </c>
@@ -2476,7 +2960,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="10:11">
+    <row r="57" spans="3:11">
+      <c r="C57" s="29"/>
+      <c r="D57" s="32"/>
       <c r="J57" s="3" t="s">
         <v>46</v>
       </c>
@@ -2484,7 +2970,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="10:11">
+    <row r="58" spans="3:11">
+      <c r="C58" s="30"/>
+      <c r="D58" s="31"/>
       <c r="J58" s="3" t="s">
         <v>19</v>
       </c>
@@ -2492,7 +2980,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="10:11">
+    <row r="59" spans="3:11">
+      <c r="C59" s="27"/>
+      <c r="D59" s="33"/>
       <c r="J59" s="3" t="s">
         <v>24</v>
       </c>
@@ -2500,7 +2990,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="10:11">
+    <row r="60" spans="3:11">
+      <c r="C60" s="18"/>
+      <c r="D60" s="31"/>
       <c r="J60" s="3" t="s">
         <v>46</v>
       </c>
@@ -2508,7 +3000,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="10:11">
+    <row r="61" spans="3:11">
+      <c r="C61" s="27"/>
+      <c r="D61" s="32"/>
       <c r="J61" s="3" t="s">
         <v>33</v>
       </c>
@@ -2516,7 +3010,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="10:11">
+    <row r="62" spans="3:11">
+      <c r="C62" s="28"/>
+      <c r="D62" s="31"/>
       <c r="J62" s="3" t="s">
         <v>37</v>
       </c>
@@ -2524,7 +3020,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="10:11">
+    <row r="63" spans="3:11">
+      <c r="C63" s="27"/>
+      <c r="D63" s="32"/>
       <c r="J63" s="3" t="s">
         <v>32</v>
       </c>
@@ -2532,7 +3030,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="10:11">
+    <row r="64" spans="3:11">
+      <c r="C64" s="30"/>
+      <c r="D64" s="31"/>
       <c r="J64" s="3" t="s">
         <v>30</v>
       </c>
@@ -2540,7 +3040,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="10:11">
+    <row r="65" spans="3:11">
+      <c r="C65" s="27"/>
+      <c r="D65" s="32"/>
       <c r="J65" s="3" t="s">
         <v>42</v>
       </c>
@@ -2548,7 +3050,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="10:11">
+    <row r="66" spans="3:11">
+      <c r="C66" s="28"/>
+      <c r="D66" s="31"/>
       <c r="J66" s="3" t="s">
         <v>51</v>
       </c>
@@ -2556,7 +3060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="10:11">
+    <row r="67" spans="3:11">
       <c r="J67" s="3" t="s">
         <v>51</v>
       </c>
@@ -2564,13 +3068,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="10:11">
+    <row r="68" spans="3:11">
       <c r="J68" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K68" t="s">
         <v>92</v>
       </c>
+    </row>
+    <row r="69" spans="3:11">
+      <c r="D69" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J6:J27">
@@ -2581,25 +3088,222 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="B36:J36"/>
   </mergeCells>
-  <conditionalFormatting sqref="C6:C34">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="C6:C34 C40:C66">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>IF(C6="", TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H34">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>C6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F56">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>IF(F39="", TRUE, FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H56">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E773B5-9BD6-450E-BCDE-877D76BB9F3C}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A19">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>IF(A2="", TRUE, FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505D52D1-1B90-43A7-96C4-75AF4E9C7CB3}">
   <dimension ref="A1:B30"/>
   <sheetViews>
@@ -2625,7 +3329,7 @@
       <c r="A2" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2633,15 +3337,15 @@
       <c r="A3" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2649,7 +3353,7 @@
       <c r="A5" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2657,7 +3361,7 @@
       <c r="A6" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2665,7 +3369,7 @@
       <c r="A7" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2673,7 +3377,7 @@
       <c r="A8" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2681,7 +3385,7 @@
       <c r="A9" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2689,7 +3393,7 @@
       <c r="A10" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2697,7 +3401,7 @@
       <c r="A11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2705,7 +3409,7 @@
       <c r="A12" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2713,7 +3417,7 @@
       <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2721,7 +3425,7 @@
       <c r="A14" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2729,7 +3433,7 @@
       <c r="A15" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2737,7 +3441,7 @@
       <c r="A16" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="19" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2745,7 +3449,7 @@
       <c r="A17" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="19" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2753,7 +3457,7 @@
       <c r="A18" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="19" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2761,7 +3465,7 @@
       <c r="A19" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="20" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2769,7 +3473,7 @@
       <c r="A20" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="19" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2777,49 +3481,49 @@
       <c r="A21" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="24" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="16"/>
-      <c r="B23" s="21"/>
+      <c r="B23" s="19"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="16"/>
-      <c r="B24" s="21"/>
+      <c r="B24" s="19"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="16"/>
-      <c r="B25" s="21"/>
+      <c r="B25" s="19"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="17"/>
-      <c r="B26" s="22"/>
+      <c r="B26" s="20"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="16"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="19"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="16"/>
-      <c r="B28" s="21"/>
+      <c r="B28" s="19"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="16"/>
-      <c r="B29" s="21"/>
+      <c r="B29" s="19"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2829,7 +3533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
@@ -2854,12 +3558,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2870,12 +3574,12 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -3818,7 +4522,7 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C34">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3827,7 +4531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
@@ -4592,7 +5296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -4866,7 +5570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
@@ -4890,11 +5594,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -4904,11 +5608,11 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>

--- a/2026.xlsx
+++ b/2026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\jadwal-imam-tarawih\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jadwal-imam-tarawih\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C49F18-17D7-4E39-AD40-81161E0457A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9B202F-E1D0-4173-9B85-CB314AB59910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,12 +24,20 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">DT!$A$1:$D$36</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="211">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -560,20 +568,165 @@
   <si>
     <t>Pengulangan</t>
   </si>
+  <si>
+    <t>Nomor WA Tujuan</t>
+  </si>
+  <si>
+    <t>Judul</t>
+  </si>
+  <si>
+    <t>Pesan</t>
+  </si>
+  <si>
+    <t>URL Gambar</t>
+  </si>
+  <si>
+    <t>Jadwal Kirim Pesan (WIB)</t>
+  </si>
+  <si>
+    <t>Judul Pesan 1</t>
+  </si>
+  <si>
+    <t>Isi pesan WhatsApp di sini</t>
+  </si>
+  <si>
+    <t>https://example.com/image.jpg</t>
+  </si>
+  <si>
+    <t>tiap pekan</t>
+  </si>
+  <si>
+    <t>Judul Pesan 2</t>
+  </si>
+  <si>
+    <t>Isi pesan kedua di sini</t>
+  </si>
+  <si>
+    <t>tiap bulan</t>
+  </si>
+  <si>
+    <t>081234567890</t>
+  </si>
+  <si>
+    <t>089876543210</t>
+  </si>
+  <si>
+    <t>Yang kolom pertama nggak perlu diisi</t>
+  </si>
+  <si>
+    <t>Tes</t>
+  </si>
+  <si>
+    <t>2025-12-31 12:33:02</t>
+  </si>
+  <si>
+    <t>+6281545143654</t>
+  </si>
+  <si>
+    <t>+6282320040021</t>
+  </si>
+  <si>
+    <t>+6281341459342</t>
+  </si>
+  <si>
+    <t>+6281350170682</t>
+  </si>
+  <si>
+    <t>+6285156952623</t>
+  </si>
+  <si>
+    <t>+6285388898918</t>
+  </si>
+  <si>
+    <t>+6282153442363</t>
+  </si>
+  <si>
+    <t>+6282274180206</t>
+  </si>
+  <si>
+    <t>+6282254991016</t>
+  </si>
+  <si>
+    <t>+6282252826688</t>
+  </si>
+  <si>
+    <t>+6282123226368</t>
+  </si>
+  <si>
+    <t>+6285754227966</t>
+  </si>
+  <si>
+    <t>+6285389333869</t>
+  </si>
+  <si>
+    <t>+6281346326451</t>
+  </si>
+  <si>
+    <t>+6281351655536</t>
+  </si>
+  <si>
+    <t>+6285345800531</t>
+  </si>
+  <si>
+    <t>+628985520616</t>
+  </si>
+  <si>
+    <t>+6281324698218</t>
+  </si>
+  <si>
+    <t>Masjid Daarut Thoyyibah</t>
+  </si>
+  <si>
+    <t>+6285248770627</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Halo\n\nHai</t>
+  </si>
+  <si>
+    <t>Tes 2</t>
+  </si>
+  <si>
+    <t>Halo\nHai\n\nSemuanya…</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -606,6 +759,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -633,7 +807,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -695,20 +869,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -732,56 +915,44 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -789,10 +960,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -804,10 +975,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -816,6 +987,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -823,121 +1051,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -947,64 +1061,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1113,7 +1169,68 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1148,6 +1265,137 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1173,8 +1421,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1221,8 +1469,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1261,16 +1509,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1299,7 +1547,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9744075" y="0"/>
+          <a:off x="14468475" y="7905750"/>
           <a:ext cx="6343650" cy="6715125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1313,16 +1561,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F672EF5-F5A6-4182-8647-3A86B3566FAB}" name="Table1" displayName="Table1" ref="A5:E34" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F672EF5-F5A6-4182-8647-3A86B3566FAB}" name="Table1" displayName="Table1" ref="A5:E34" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="A5:E34" xr:uid="{7F672EF5-F5A6-4182-8647-3A86B3566FAB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EDA3354A-D911-4857-BDFD-2A76F68799B6}" name="Nomor" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{EDA3354A-D911-4857-BDFD-2A76F68799B6}" name="Nomor" dataDxfId="18">
       <calculatedColumnFormula>A5+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EE32957E-B020-43A5-93B6-4F4983A5B8C5}" name="Tanggal" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{EE32957E-B020-43A5-93B6-4F4983A5B8C5}" name="Tanggal" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{474FEB94-AA9D-4225-84A8-CAE68BC78718}" name="Imam"/>
     <tableColumn id="4" xr3:uid="{E9CF7577-A218-4BFC-BD73-D8F2523F2B45}" name="Keterangan"/>
-    <tableColumn id="5" xr3:uid="{11BF8C20-01CD-49CD-96D6-A73B48384BCF}" name="Nomor WA" dataDxfId="7">
+    <tableColumn id="5" xr3:uid="{11BF8C20-01CD-49CD-96D6-A73B48384BCF}" name="Nomor WA" dataDxfId="16">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1331,15 +1579,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D9530C33-B6B5-4115-9923-45D7AFE34439}" name="Table35" displayName="Table35" ref="F38:H56" totalsRowShown="0" tableBorderDxfId="9">
-  <autoFilter ref="F38:H56" xr:uid="{D9530C33-B6B5-4115-9923-45D7AFE34439}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D9530C33-B6B5-4115-9923-45D7AFE34439}" name="Table35" displayName="Table35" ref="F38:H57" totalsRowShown="0" tableBorderDxfId="15">
+  <autoFilter ref="F38:H57" xr:uid="{D9530C33-B6B5-4115-9923-45D7AFE34439}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F39:G56">
     <sortCondition ref="F1:F19"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F724475A-A50A-4C3B-815A-F4FD22C8480A}" name="Nama"/>
-    <tableColumn id="2" xr3:uid="{FF44FB9B-A317-41C3-9E91-41A8D60563FD}" name="Nomor WA" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{1A922AE0-1ED0-4A04-AAF7-5D85C9B067EF}" name="Pengulangan" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{F724475A-A50A-4C3B-815A-F4FD22C8480A}" name="Nama" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{FF44FB9B-A317-41C3-9E91-41A8D60563FD}" name="Nomor WA" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{1A922AE0-1ED0-4A04-AAF7-5D85C9B067EF}" name="Pengulangan" dataDxfId="12">
       <calculatedColumnFormula>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1348,28 +1596,46 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2A622B11-EC89-4AF0-9DF4-FB14C2B1C37F}" name="Table3" displayName="Table3" ref="A1:B19" totalsRowShown="0" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ED39EA5A-A81E-4D32-8B64-273C7A8F6950}" name="Table16" displayName="Table16" ref="K5:O34" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="K5:O34" xr:uid="{4CDDEFDD-9B9A-4132-B3F2-84E308C2EBE7}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7DEC5B5B-9500-4D9B-A1CE-235D25215B3C}" name="Nomor" dataDxfId="10">
+      <calculatedColumnFormula>K5+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{1E1369C1-C29E-4040-9295-EB68CA1DA6EB}" name="Tanggal" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{BCFEBDF1-F84F-4997-88AF-EBE87A6CECF2}" name="Imam"/>
+    <tableColumn id="4" xr3:uid="{0425DBC4-EE39-4081-9C40-C58050634AC8}" name="Keterangan"/>
+    <tableColumn id="5" xr3:uid="{8DEC3263-BB8F-4EFB-B746-F94FE8E58523}" name="Nomor WA" dataDxfId="8">
+      <calculatedColumnFormula>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2A622B11-EC89-4AF0-9DF4-FB14C2B1C37F}" name="Table3" displayName="Table3" ref="A1:B19" totalsRowShown="0" tableBorderDxfId="6">
   <autoFilter ref="A1:B19" xr:uid="{2A622B11-EC89-4AF0-9DF4-FB14C2B1C37F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B19">
     <sortCondition ref="A1:A19"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{2AB0227A-689E-434E-BE31-2D3674F24B79}" name="Nama"/>
-    <tableColumn id="2" xr3:uid="{BBECE007-5A72-4694-9062-83FE01F91734}" name="Nomor WA" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{BBECE007-5A72-4694-9062-83FE01F91734}" name="Nomor WA" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B463BB1F-E51B-43C0-AA2F-E1D6DB3DDCF7}" name="Table2" displayName="Table2" ref="A1:B30" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B463BB1F-E51B-43C0-AA2F-E1D6DB3DDCF7}" name="Table2" displayName="Table2" ref="A1:B30" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:B30" xr:uid="{B463BB1F-E51B-43C0-AA2F-E1D6DB3DDCF7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A0750327-460A-4848-BB77-C819467CC83E}" name="Nama" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{97DD37ED-3D7B-4850-8D30-26BB8E10C618}" name="Nomor WA" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{A0750327-460A-4848-BB77-C819467CC83E}" name="Nama" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{97DD37ED-3D7B-4850-8D30-26BB8E10C618}" name="Nomor WA" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1633,10 +1899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:K69"/>
+  <dimension ref="A2:AD84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1645,23 +1911,28 @@
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.85546875" style="11" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:30">
+      <c r="A2" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="34"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
@@ -1670,19 +1941,31 @@
       <c r="J2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="25" t="s">
+      <c r="K2" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="34"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K3" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+    </row>
+    <row r="5" spans="1:30" ht="36">
       <c r="A5" s="1" t="s">
         <v>136</v>
       </c>
@@ -1695,7 +1978,7 @@
       <c r="D5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="31" t="s">
         <v>140</v>
       </c>
       <c r="F5" s="1"/>
@@ -1703,23 +1986,62 @@
       <c r="H5" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q5" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="R5" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="S5" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="T5" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="U5" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="V5" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="W5" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+    </row>
+    <row r="6" spans="1:30" ht="48.75" thickBot="1">
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="43">
         <v>46071</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="36" t="str">
+      <c r="E6" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>082320040021</v>
+        <v>+6282320040021</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
@@ -1733,24 +2055,61 @@
       <c r="J6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="43">
+        <v>46071</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O6" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6282254991016</v>
+      </c>
+      <c r="Q6" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="S6" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="T6" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="U6" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="V6" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+    </row>
+    <row r="7" spans="1:30" ht="36">
       <c r="A7" s="5">
         <f t="shared" ref="A7:A34" si="0">A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="43">
         <v>46072</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="36" t="str">
+      <c r="E7" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>081545143654</v>
+        <v>+6281545143654</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>24</v>
@@ -1764,24 +2123,61 @@
       <c r="J7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="5">
+        <f t="shared" ref="K7:K34" si="1">K6+1</f>
+        <v>2</v>
+      </c>
+      <c r="L7" s="43">
+        <v>46072</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O7" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6285345800531</v>
+      </c>
+      <c r="Q7" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="S7" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="T7" s="38"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="X7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+    </row>
+    <row r="8" spans="1:30" ht="30">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="43">
         <v>46073</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="36" t="str">
+      <c r="E8" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>081341459342</v>
+        <v>+6281341459342</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>29</v>
@@ -1795,24 +2191,59 @@
       <c r="J8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L8" s="43">
+        <v>46073</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O8" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6282274180206</v>
+      </c>
+      <c r="Q8" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="R8" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="S8" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="U8" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="X8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+    </row>
+    <row r="9" spans="1:30" ht="60">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="43">
         <v>46074</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="37" t="str">
+      <c r="E9" s="33" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>085156952623</v>
+        <v>+6285156952623</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>32</v>
@@ -1826,24 +2257,60 @@
       <c r="J9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L9" s="43">
+        <v>46074</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O9" s="33" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6285248770627</v>
+      </c>
+      <c r="Q9" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="R9" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="S9" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="U9" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="43">
         <v>46075</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="36" t="str">
+      <c r="E10" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>085388898918</v>
+        <v>+6285388898918</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>33</v>
@@ -1857,13 +2324,42 @@
       <c r="J10" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L10" s="43">
+        <v>46075</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O10" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6285389333869</v>
+      </c>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="43">
         <v>46076</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -1872,9 +2368,9 @@
       <c r="D11" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="36" t="str">
+      <c r="E11" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>082153442363</v>
+        <v>+6282153442363</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>37</v>
@@ -1888,24 +2384,53 @@
       <c r="J11" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L11" s="43">
+        <v>46076</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="N11" t="s">
+        <v>143</v>
+      </c>
+      <c r="O11" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6285754227966</v>
+      </c>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="43">
         <v>46077</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="36" t="str">
+      <c r="E12" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>082274180206</v>
+        <v>+6282274180206</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>30</v>
@@ -1919,13 +2444,42 @@
       <c r="J12" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L12" s="43">
+        <v>46077</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O12" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6282123226368</v>
+      </c>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="43">
         <v>46078</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -1934,9 +2488,9 @@
       <c r="D13" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="36" t="str">
+      <c r="E13" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>082254991016</v>
+        <v>+6282254991016</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>57</v>
@@ -1950,24 +2504,53 @@
       <c r="J13" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L13" s="43">
+        <v>46078</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O13" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6281351655536</v>
+      </c>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="43">
         <v>46079</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="36" t="str">
+      <c r="E14" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>082252826688</v>
+        <v>+6282252826688</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>43</v>
@@ -1981,24 +2564,53 @@
       <c r="J14" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L14" s="43">
+        <v>46079</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6281324698218</v>
+      </c>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="43">
         <v>46080</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="36" t="str">
+      <c r="E15" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>082123226368</v>
+        <v>+6282123226368</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>42</v>
@@ -2012,13 +2624,42 @@
       <c r="J15" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L15" s="43">
+        <v>46080</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6285156952623</v>
+      </c>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="43">
         <v>46081</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -2027,9 +2668,9 @@
       <c r="D16" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="36" t="str">
+      <c r="E16" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>085754227966</v>
+        <v>+6285754227966</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>30</v>
@@ -2043,24 +2684,53 @@
       <c r="J16" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="L16" s="43">
+        <v>46081</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6281545143654</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="43">
         <v>46082</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="36" t="str">
+      <c r="E17" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>085389333869</v>
+        <v>+6285389333869</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>43</v>
@@ -2074,21 +2744,50 @@
       <c r="J17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L17" s="43">
+        <v>46082</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O17" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6282153442363</v>
+      </c>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="43">
         <v>46083</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="36" t="str">
+      <c r="E18" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>081346326451</v>
+        <v>+6281346326451</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>52</v>
@@ -2102,24 +2801,50 @@
       <c r="J18" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="L18" s="43">
+        <v>46083</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O18" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6282254991016</v>
+      </c>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="43">
         <v>46084</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="36" t="str">
+      <c r="E19" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>081351655536</v>
+        <v>+6281351655536</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>32</v>
@@ -2133,21 +2858,50 @@
       <c r="J19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L19" s="43">
+        <v>46084</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O19" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6285345800531</v>
+      </c>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="43">
         <v>46085</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="36" t="str">
+      <c r="E20" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>081324698218</v>
+        <v>+6281324698218</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>30</v>
@@ -2161,13 +2915,39 @@
       <c r="J20" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="L20" s="43">
+        <v>46085</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6282274180206</v>
+      </c>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="43">
         <v>46086</v>
       </c>
       <c r="C21" s="12" t="s">
@@ -2176,9 +2956,9 @@
       <c r="D21" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="36" t="str">
+      <c r="E21" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>082252826688</v>
+        <v>+6282252826688</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>55</v>
@@ -2192,21 +2972,50 @@
       <c r="J21" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="L21" s="43">
+        <v>46086</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="N21" t="s">
+        <v>143</v>
+      </c>
+      <c r="O21" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+628985520616</v>
+      </c>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="43">
         <v>46087</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="36" t="str">
+      <c r="E22" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>081324698218</v>
+        <v>+6281324698218</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>56</v>
@@ -2220,13 +3029,39 @@
       <c r="J22" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="5">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="L22" s="43">
+        <v>46087</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="O22" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6281341459342</v>
+      </c>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="43">
         <v>46088</v>
       </c>
       <c r="C23" s="12" t="s">
@@ -2235,9 +3070,9 @@
       <c r="D23" t="s">
         <v>143</v>
       </c>
-      <c r="E23" s="36" t="str">
+      <c r="E23" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>085345800531</v>
+        <v>+6285345800531</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>51</v>
@@ -2251,24 +3086,53 @@
       <c r="J23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="L23" s="43">
+        <v>46088</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N23" t="s">
+        <v>143</v>
+      </c>
+      <c r="O23" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6282123226368</v>
+      </c>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="43">
         <v>46089</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E24" s="36" t="str">
+      <c r="E24" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>08985520616</v>
+        <v>+628985520616</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>46</v>
@@ -2282,24 +3146,53 @@
       <c r="J24" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" s="5">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="L24" s="43">
+        <v>46089</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O24" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6281351655536</v>
+      </c>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="43">
         <v>46090</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="36" t="str">
+      <c r="E25" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>081545143654</v>
+        <v>+6281545143654</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>19</v>
@@ -2313,13 +3206,42 @@
       <c r="J25" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="L25" s="43">
+        <v>46090</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O25" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6281324698218</v>
+      </c>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="43">
         <v>46091</v>
       </c>
       <c r="C26" s="12" t="s">
@@ -2328,9 +3250,9 @@
       <c r="D26" t="s">
         <v>143</v>
       </c>
-      <c r="E26" s="36" t="str">
+      <c r="E26" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>081324698218</v>
+        <v>+6281324698218</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>24</v>
@@ -2344,24 +3266,53 @@
       <c r="J26" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" s="5">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="L26" s="43">
+        <v>46091</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="N26" t="s">
+        <v>143</v>
+      </c>
+      <c r="O26" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6285156952623</v>
+      </c>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="43">
         <v>46092</v>
       </c>
       <c r="C27" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E27" s="37" t="str">
+      <c r="E27" s="33" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>085156952623</v>
+        <v>+6285156952623</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>46</v>
@@ -2372,24 +3323,53 @@
       <c r="H27" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" s="5">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="L27" s="43">
+        <v>46092</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O27" s="33" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6285754227966</v>
+      </c>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="44">
         <v>46093</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="36" t="str">
+      <c r="E28" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>081350170682</v>
+        <v>+6281350170682</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>33</v>
@@ -2400,24 +3380,53 @@
       <c r="H28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" s="5">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="L28" s="44">
+        <v>46093</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O28" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6282123226368</v>
+      </c>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="44">
         <v>46094</v>
       </c>
       <c r="C29" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E29" s="36" t="str">
+      <c r="E29" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>081341459342</v>
+        <v>+6281341459342</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>37</v>
@@ -2428,24 +3437,53 @@
       <c r="H29" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" s="5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="L29" s="44">
+        <v>46094</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O29" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+628985520616</v>
+      </c>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="44">
         <v>46095</v>
       </c>
       <c r="C30" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E30" s="36" t="str">
+      <c r="E30" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>085156952623</v>
+        <v>+6285156952623</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>32</v>
@@ -2457,24 +3495,53 @@
         <v>34</v>
       </c>
       <c r="J30" s="12"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" s="5">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="L30" s="44">
+        <v>46095</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O30" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6285345800531</v>
+      </c>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="44">
         <v>46096</v>
       </c>
       <c r="C31" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="36" t="str">
+      <c r="E31" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>085388898918</v>
+        <v>+6285388898918</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>30</v>
@@ -2485,24 +3552,53 @@
       <c r="H31" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" s="5">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="L31" s="44">
+        <v>46096</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O31" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6282274180206</v>
+      </c>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="44">
         <v>46097</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E32" s="36" t="str">
+      <c r="E32" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>082123226368</v>
+        <v>+6282123226368</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>42</v>
@@ -2513,13 +3609,42 @@
       <c r="H32" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="K32" s="5">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="L32" s="44">
+        <v>46097</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O32" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6285389333869</v>
+      </c>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="44">
         <v>46098</v>
       </c>
       <c r="C33" t="s">
@@ -2528,9 +3653,9 @@
       <c r="D33" t="s">
         <v>143</v>
       </c>
-      <c r="E33" s="36" t="str">
+      <c r="E33" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>082254991016</v>
+        <v>+6282254991016</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>51</v>
@@ -2541,24 +3666,53 @@
       <c r="H33" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="K33" s="5">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="L33" s="44">
+        <v>46098</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="N33" t="s">
+        <v>143</v>
+      </c>
+      <c r="O33" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6285388898918</v>
+      </c>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="44">
         <v>46099</v>
       </c>
       <c r="C34" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E34" s="36" t="str">
+      <c r="E34" s="32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>082274180206</v>
+        <v>+6282274180206</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>51</v>
@@ -2569,45 +3723,124 @@
       <c r="H34" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="K34" s="5">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="L34" s="44">
+        <v>46099</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O34" s="32" t="str">
+        <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
+        <v>+6282254991016</v>
+      </c>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+    </row>
+    <row r="35" spans="1:30">
       <c r="F35" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G35" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="B36" s="26" t="s">
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+    </row>
+    <row r="36" spans="1:30">
+      <c r="B36" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+    </row>
+    <row r="37" spans="1:30">
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+    </row>
+    <row r="38" spans="1:30">
       <c r="F38" t="s">
         <v>167</v>
       </c>
       <c r="G38" t="s">
         <v>140</v>
       </c>
-      <c r="H38" s="38" t="s">
+      <c r="H38" s="34" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="F39" s="30" t="s">
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+    </row>
+    <row r="39" spans="1:30">
+      <c r="F39" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="G39" s="31" t="s">
-        <v>147</v>
+      <c r="G39" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="H39">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -2619,15 +3852,27 @@
       <c r="K39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="C40" s="30"/>
-      <c r="D40" s="31"/>
-      <c r="F40" s="30" t="s">
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+    </row>
+    <row r="40" spans="1:30">
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
+      <c r="F40" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="31" t="s">
-        <v>149</v>
+      <c r="G40" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="H40">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -2639,15 +3884,27 @@
       <c r="K40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="C41" s="29"/>
-      <c r="D41" s="32"/>
-      <c r="F41" s="18" t="s">
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+    </row>
+    <row r="41" spans="1:30">
+      <c r="C41" s="25"/>
+      <c r="D41" s="28"/>
+      <c r="F41" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="G41" s="31" t="s">
-        <v>166</v>
+      <c r="G41" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="H41">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -2659,15 +3916,27 @@
       <c r="K41" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="C42" s="30"/>
-      <c r="D42" s="31"/>
-      <c r="F42" s="29" t="s">
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+    </row>
+    <row r="42" spans="1:30">
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="F42" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G42" s="33" t="s">
-        <v>168</v>
+      <c r="G42" s="11" t="s">
+        <v>191</v>
       </c>
       <c r="H42">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -2679,15 +3948,27 @@
       <c r="K42" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="C43" s="29"/>
-      <c r="D43" s="33"/>
-      <c r="F43" s="30" t="s">
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+    </row>
+    <row r="43" spans="1:30">
+      <c r="C43" s="25"/>
+      <c r="D43" s="29"/>
+      <c r="F43" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G43" s="31" t="s">
-        <v>151</v>
+      <c r="G43" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="H43">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -2700,14 +3981,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="C44" s="30"/>
-      <c r="D44" s="31"/>
-      <c r="F44" s="29" t="s">
+    <row r="44" spans="1:30">
+      <c r="C44" s="26"/>
+      <c r="D44" s="27"/>
+      <c r="F44" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G44" s="32" t="s">
-        <v>152</v>
+      <c r="G44" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="H44">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -2720,14 +4001,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="C45" s="29"/>
-      <c r="D45" s="32"/>
-      <c r="F45" s="30" t="s">
+    <row r="45" spans="1:30">
+      <c r="C45" s="25"/>
+      <c r="D45" s="28"/>
+      <c r="F45" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G45" s="31" t="s">
-        <v>153</v>
+      <c r="G45" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="H45">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -2740,14 +4021,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="C46" s="30"/>
-      <c r="D46" s="31"/>
-      <c r="F46" s="29" t="s">
+    <row r="46" spans="1:30">
+      <c r="C46" s="26"/>
+      <c r="D46" s="27"/>
+      <c r="F46" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G46" s="32" t="s">
-        <v>154</v>
+      <c r="G46" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="H46">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -2760,14 +4041,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="C47" s="29"/>
-      <c r="D47" s="32"/>
-      <c r="F47" s="30" t="s">
+    <row r="47" spans="1:30">
+      <c r="C47" s="25"/>
+      <c r="D47" s="28"/>
+      <c r="F47" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="G47" s="31" t="s">
-        <v>155</v>
+      <c r="G47" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="H47">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -2780,14 +4061,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="C48" s="30"/>
-      <c r="D48" s="31"/>
-      <c r="F48" s="29" t="s">
+    <row r="48" spans="1:30">
+      <c r="C48" s="26"/>
+      <c r="D48" s="27"/>
+      <c r="F48" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G48" s="32" t="s">
-        <v>156</v>
+      <c r="G48" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="H48">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -2801,13 +4082,13 @@
       </c>
     </row>
     <row r="49" spans="3:11">
-      <c r="C49" s="29"/>
-      <c r="D49" s="32"/>
-      <c r="F49" s="30" t="s">
+      <c r="C49" s="25"/>
+      <c r="D49" s="28"/>
+      <c r="F49" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="G49" s="31" t="s">
-        <v>150</v>
+      <c r="G49" s="11" t="s">
+        <v>198</v>
       </c>
       <c r="H49">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -2821,13 +4102,13 @@
       </c>
     </row>
     <row r="50" spans="3:11">
-      <c r="C50" s="30"/>
-      <c r="D50" s="31"/>
-      <c r="F50" s="29" t="s">
+      <c r="C50" s="26"/>
+      <c r="D50" s="27"/>
+      <c r="F50" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G50" s="32" t="s">
-        <v>157</v>
+      <c r="G50" s="11" t="s">
+        <v>199</v>
       </c>
       <c r="H50">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -2841,13 +4122,13 @@
       </c>
     </row>
     <row r="51" spans="3:11">
-      <c r="C51" s="29"/>
-      <c r="D51" s="32"/>
-      <c r="F51" s="30" t="s">
+      <c r="C51" s="25"/>
+      <c r="D51" s="28"/>
+      <c r="F51" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G51" s="31" t="s">
-        <v>158</v>
+      <c r="G51" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="H51">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -2861,13 +4142,13 @@
       </c>
     </row>
     <row r="52" spans="3:11">
-      <c r="C52" s="30"/>
-      <c r="D52" s="31"/>
-      <c r="F52" s="29" t="s">
+      <c r="C52" s="26"/>
+      <c r="D52" s="27"/>
+      <c r="F52" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G52" s="32" t="s">
-        <v>159</v>
+      <c r="G52" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="H52">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -2881,13 +4162,13 @@
       </c>
     </row>
     <row r="53" spans="3:11">
-      <c r="C53" s="29"/>
-      <c r="D53" s="32"/>
-      <c r="F53" s="29" t="s">
+      <c r="C53" s="25"/>
+      <c r="D53" s="28"/>
+      <c r="F53" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G53" s="32" t="s">
-        <v>162</v>
+      <c r="G53" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="H53">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -2901,13 +4182,13 @@
       </c>
     </row>
     <row r="54" spans="3:11">
-      <c r="C54" s="29"/>
-      <c r="D54" s="32"/>
-      <c r="F54" s="30" t="s">
+      <c r="C54" s="25"/>
+      <c r="D54" s="28"/>
+      <c r="F54" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G54" s="31" t="s">
-        <v>163</v>
+      <c r="G54" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="H54">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -2921,13 +4202,13 @@
       </c>
     </row>
     <row r="55" spans="3:11">
-      <c r="C55" s="29"/>
-      <c r="D55" s="32"/>
-      <c r="F55" s="30" t="s">
+      <c r="C55" s="25"/>
+      <c r="D55" s="28"/>
+      <c r="F55" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="G55" s="31" t="s">
-        <v>165</v>
+      <c r="G55" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="H55">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -2941,13 +4222,13 @@
       </c>
     </row>
     <row r="56" spans="3:11">
-      <c r="C56" s="30"/>
-      <c r="D56" s="31"/>
-      <c r="F56" s="29" t="s">
+      <c r="C56" s="26"/>
+      <c r="D56" s="27"/>
+      <c r="F56" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G56" s="32" t="s">
-        <v>164</v>
+      <c r="G56" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="H56">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -2961,8 +4242,18 @@
       </c>
     </row>
     <row r="57" spans="3:11">
-      <c r="C57" s="29"/>
-      <c r="D57" s="32"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="28"/>
+      <c r="F57" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="H57" s="47">
+        <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
+        <v>0</v>
+      </c>
       <c r="J57" s="3" t="s">
         <v>46</v>
       </c>
@@ -2971,8 +4262,8 @@
       </c>
     </row>
     <row r="58" spans="3:11">
-      <c r="C58" s="30"/>
-      <c r="D58" s="31"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="27"/>
       <c r="J58" s="3" t="s">
         <v>19</v>
       </c>
@@ -2981,8 +4272,14 @@
       </c>
     </row>
     <row r="59" spans="3:11">
-      <c r="C59" s="27"/>
-      <c r="D59" s="33"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="29"/>
+      <c r="F59" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>188</v>
+      </c>
       <c r="J59" s="3" t="s">
         <v>24</v>
       </c>
@@ -2991,8 +4288,15 @@
       </c>
     </row>
     <row r="60" spans="3:11">
-      <c r="C60" s="18"/>
-      <c r="D60" s="31"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="27"/>
+      <c r="F60" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H60" s="11"/>
       <c r="J60" s="3" t="s">
         <v>46</v>
       </c>
@@ -3001,8 +4305,15 @@
       </c>
     </row>
     <row r="61" spans="3:11">
-      <c r="C61" s="27"/>
-      <c r="D61" s="32"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="28"/>
+      <c r="F61" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H61" s="11"/>
       <c r="J61" s="3" t="s">
         <v>33</v>
       </c>
@@ -3011,8 +4322,15 @@
       </c>
     </row>
     <row r="62" spans="3:11">
-      <c r="C62" s="28"/>
-      <c r="D62" s="31"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="27"/>
+      <c r="F62" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H62" s="11"/>
       <c r="J62" s="3" t="s">
         <v>37</v>
       </c>
@@ -3021,8 +4339,15 @@
       </c>
     </row>
     <row r="63" spans="3:11">
-      <c r="C63" s="27"/>
-      <c r="D63" s="32"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="28"/>
+      <c r="F63" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H63" s="11"/>
       <c r="J63" s="3" t="s">
         <v>32</v>
       </c>
@@ -3031,8 +4356,15 @@
       </c>
     </row>
     <row r="64" spans="3:11">
-      <c r="C64" s="30"/>
-      <c r="D64" s="31"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="27"/>
+      <c r="F64" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H64" s="11"/>
       <c r="J64" s="3" t="s">
         <v>30</v>
       </c>
@@ -3041,8 +4373,15 @@
       </c>
     </row>
     <row r="65" spans="3:11">
-      <c r="C65" s="27"/>
-      <c r="D65" s="32"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="28"/>
+      <c r="F65" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="H65" s="11"/>
       <c r="J65" s="3" t="s">
         <v>42</v>
       </c>
@@ -3051,8 +4390,15 @@
       </c>
     </row>
     <row r="66" spans="3:11">
-      <c r="C66" s="28"/>
-      <c r="D66" s="31"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="27"/>
+      <c r="F66" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="H66" s="11"/>
       <c r="J66" s="3" t="s">
         <v>51</v>
       </c>
@@ -3061,6 +4407,13 @@
       </c>
     </row>
     <row r="67" spans="3:11">
+      <c r="F67" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H67" s="11"/>
       <c r="J67" s="3" t="s">
         <v>51</v>
       </c>
@@ -3069,6 +4422,13 @@
       </c>
     </row>
     <row r="68" spans="3:11">
+      <c r="F68" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H68" s="11"/>
       <c r="J68" s="3" t="s">
         <v>46</v>
       </c>
@@ -3078,33 +4438,145 @@
     </row>
     <row r="69" spans="3:11">
       <c r="D69" s="11"/>
+      <c r="F69" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="H69" s="11"/>
+    </row>
+    <row r="70" spans="3:11">
+      <c r="F70" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="H70" s="11"/>
+    </row>
+    <row r="71" spans="3:11">
+      <c r="F71" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="H71" s="11"/>
+    </row>
+    <row r="72" spans="3:11">
+      <c r="F72" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" spans="3:11">
+      <c r="F73" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H73" s="11"/>
+    </row>
+    <row r="74" spans="3:11">
+      <c r="F74" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="H74" s="11"/>
+    </row>
+    <row r="75" spans="3:11">
+      <c r="F75" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="H75" s="11"/>
+    </row>
+    <row r="76" spans="3:11">
+      <c r="F76" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="H76" s="11"/>
+    </row>
+    <row r="77" spans="3:11">
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+    </row>
+    <row r="78" spans="3:11">
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+    </row>
+    <row r="79" spans="3:11">
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+    </row>
+    <row r="80" spans="3:11">
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+    </row>
+    <row r="81" spans="6:8">
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+    </row>
+    <row r="82" spans="6:8">
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+    </row>
+    <row r="83" spans="6:8">
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+    </row>
+    <row r="84" spans="6:8">
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J6:J27">
     <sortCondition ref="J6:J27"/>
   </sortState>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="B36:J36"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:C34 C40:C66">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
       <formula>IF(C6="", TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H34">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
       <formula>C6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F56">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>IF(F39="", TRUE, FALSE)</formula>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+      <formula>IF(M9="", TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H56">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="H39:H57">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3115,11 +4587,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+      <formula>IF(F57="", TRUE, FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3147,152 +4626,152 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="27" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="27" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="29" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="27" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="28" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="27" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="28" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="27" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="28" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="27" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="28" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="27" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="28" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="28" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="27" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="27" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="28" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A19">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>IF(A2="", TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3326,204 +4805,204 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="17" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="22" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="17"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="18"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3558,12 +5037,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3574,12 +5053,12 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -4522,7 +6001,7 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C34">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5594,11 +7073,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -5608,11 +7087,11 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>

--- a/2026.xlsx
+++ b/2026.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jadwal-imam-tarawih\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ASATIDZ\Zen\jadwal-imam-tarawih\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9B202F-E1D0-4173-9B85-CB314AB59910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453E76D8-263F-4B3C-9366-3445C7E63CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pak Gatot" sheetId="2" r:id="rId1"/>
@@ -23,13 +23,19 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">DT!$A$1:$D$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$D$1:$F$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="212">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -691,21 +697,32 @@
   <si>
     <t>Halo\nHai\n\nSemuanya…</t>
   </si>
+  <si>
+    <t>Contact person : 0815-4514-3654 (Zen)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="167" formatCode="[$-421]dddd\,\ dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -888,10 +905,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -915,134 +932,134 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1051,13 +1068,99 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[$-421]dddd\,\ dd\ mmmm\ yyyy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -1217,16 +1320,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1355,46 +1448,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1561,16 +1614,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F672EF5-F5A6-4182-8647-3A86B3566FAB}" name="Table1" displayName="Table1" ref="A5:E34" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F672EF5-F5A6-4182-8647-3A86B3566FAB}" name="Table1" displayName="Table1" ref="A5:E34" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A5:E34" xr:uid="{7F672EF5-F5A6-4182-8647-3A86B3566FAB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EDA3354A-D911-4857-BDFD-2A76F68799B6}" name="Nomor" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{EDA3354A-D911-4857-BDFD-2A76F68799B6}" name="Nomor" dataDxfId="26">
       <calculatedColumnFormula>A5+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EE32957E-B020-43A5-93B6-4F4983A5B8C5}" name="Tanggal" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{EE32957E-B020-43A5-93B6-4F4983A5B8C5}" name="Tanggal" dataDxfId="25"/>
     <tableColumn id="3" xr3:uid="{474FEB94-AA9D-4225-84A8-CAE68BC78718}" name="Imam"/>
     <tableColumn id="4" xr3:uid="{E9CF7577-A218-4BFC-BD73-D8F2523F2B45}" name="Keterangan"/>
-    <tableColumn id="5" xr3:uid="{11BF8C20-01CD-49CD-96D6-A73B48384BCF}" name="Nomor WA" dataDxfId="16">
+    <tableColumn id="5" xr3:uid="{11BF8C20-01CD-49CD-96D6-A73B48384BCF}" name="Nomor WA" dataDxfId="24">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1579,15 +1632,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D9530C33-B6B5-4115-9923-45D7AFE34439}" name="Table35" displayName="Table35" ref="F38:H57" totalsRowShown="0" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D9530C33-B6B5-4115-9923-45D7AFE34439}" name="Table35" displayName="Table35" ref="F38:H57" totalsRowShown="0" tableBorderDxfId="23">
   <autoFilter ref="F38:H57" xr:uid="{D9530C33-B6B5-4115-9923-45D7AFE34439}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F39:G56">
     <sortCondition ref="F1:F19"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F724475A-A50A-4C3B-815A-F4FD22C8480A}" name="Nama" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{FF44FB9B-A317-41C3-9E91-41A8D60563FD}" name="Nomor WA" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{1A922AE0-1ED0-4A04-AAF7-5D85C9B067EF}" name="Pengulangan" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{F724475A-A50A-4C3B-815A-F4FD22C8480A}" name="Nama" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{FF44FB9B-A317-41C3-9E91-41A8D60563FD}" name="Nomor WA" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{1A922AE0-1ED0-4A04-AAF7-5D85C9B067EF}" name="Pengulangan" dataDxfId="20">
       <calculatedColumnFormula>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1596,16 +1649,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ED39EA5A-A81E-4D32-8B64-273C7A8F6950}" name="Table16" displayName="Table16" ref="K5:O34" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ED39EA5A-A81E-4D32-8B64-273C7A8F6950}" name="Table16" displayName="Table16" ref="K5:O34" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="K5:O34" xr:uid="{4CDDEFDD-9B9A-4132-B3F2-84E308C2EBE7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7DEC5B5B-9500-4D9B-A1CE-235D25215B3C}" name="Nomor" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{7DEC5B5B-9500-4D9B-A1CE-235D25215B3C}" name="Nomor" dataDxfId="18">
       <calculatedColumnFormula>K5+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{1E1369C1-C29E-4040-9295-EB68CA1DA6EB}" name="Tanggal" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{1E1369C1-C29E-4040-9295-EB68CA1DA6EB}" name="Tanggal" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{BCFEBDF1-F84F-4997-88AF-EBE87A6CECF2}" name="Imam"/>
     <tableColumn id="4" xr3:uid="{0425DBC4-EE39-4081-9C40-C58050634AC8}" name="Keterangan"/>
-    <tableColumn id="5" xr3:uid="{8DEC3263-BB8F-4EFB-B746-F94FE8E58523}" name="Nomor WA" dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{8DEC3263-BB8F-4EFB-B746-F94FE8E58523}" name="Nomor WA" dataDxfId="16">
       <calculatedColumnFormula>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1614,28 +1667,42 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2A622B11-EC89-4AF0-9DF4-FB14C2B1C37F}" name="Table3" displayName="Table3" ref="A1:B19" totalsRowShown="0" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2A622B11-EC89-4AF0-9DF4-FB14C2B1C37F}" name="Table3" displayName="Table3" ref="A1:B19" totalsRowShown="0" tableBorderDxfId="15">
   <autoFilter ref="A1:B19" xr:uid="{2A622B11-EC89-4AF0-9DF4-FB14C2B1C37F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B19">
     <sortCondition ref="A1:A19"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{2AB0227A-689E-434E-BE31-2D3674F24B79}" name="Nama"/>
-    <tableColumn id="2" xr3:uid="{BBECE007-5A72-4694-9062-83FE01F91734}" name="Nomor WA" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{BBECE007-5A72-4694-9062-83FE01F91734}" name="Nomor WA" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B463BB1F-E51B-43C0-AA2F-E1D6DB3DDCF7}" name="Table2" displayName="Table2" ref="A1:B30" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ADBB7919-983C-4A81-943C-7BE32581A239}" name="Table6" displayName="Table6" ref="D4:F33" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="D4:F33" xr:uid="{ADBB7919-983C-4A81-943C-7BE32581A239}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{06541388-4626-4805-B1F9-FC1821F3A31C}" name="Nomor" dataDxfId="2">
+      <calculatedColumnFormula>D4+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{EE963465-C328-4312-B15E-4A20CF1192DA}" name="Tanggal" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{2319CD13-1A84-4F52-83BD-5FB5EB6DAAA8}" name="Imam"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B463BB1F-E51B-43C0-AA2F-E1D6DB3DDCF7}" name="Table2" displayName="Table2" ref="A1:B30" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A1:B30" xr:uid="{B463BB1F-E51B-43C0-AA2F-E1D6DB3DDCF7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A0750327-460A-4848-BB77-C819467CC83E}" name="Nama" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{97DD37ED-3D7B-4850-8D30-26BB8E10C618}" name="Nomor WA" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A0750327-460A-4848-BB77-C819467CC83E}" name="Nama" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{97DD37ED-3D7B-4850-8D30-26BB8E10C618}" name="Nomor WA" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1901,8 +1968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AD84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1911,7 +1978,7 @@
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
@@ -1926,13 +1993,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="30"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
@@ -1941,29 +2008,29 @@
       <c r="J2" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
     </row>
     <row r="5" spans="1:30" ht="36">
       <c r="A5" s="1" t="s">
@@ -1978,7 +2045,7 @@
       <c r="D5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>140</v>
       </c>
       <c r="F5" s="1"/>
@@ -1986,40 +2053,40 @@
       <c r="H5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="L5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="M5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="N5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="O5" s="31" t="s">
+      <c r="O5" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="Q5" s="39" t="s">
+      <c r="Q5" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="R5" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="S5" s="36" t="s">
+      <c r="S5" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="T5" s="36" t="s">
+      <c r="T5" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="U5" s="39" t="s">
+      <c r="U5" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="V5" s="36" t="s">
+      <c r="V5" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="W5" s="42" t="s">
+      <c r="W5" s="39" t="s">
         <v>184</v>
       </c>
       <c r="AB5" s="11"/>
@@ -2030,7 +2097,7 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="40">
         <v>46071</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -2039,7 +2106,7 @@
       <c r="D6" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="32" t="str">
+      <c r="E6" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6282320040021</v>
       </c>
@@ -2058,7 +2125,7 @@
       <c r="K6" s="5">
         <v>1</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="40">
         <v>46071</v>
       </c>
       <c r="M6" s="11" t="s">
@@ -2067,26 +2134,26 @@
       <c r="N6" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="O6" s="32" t="str">
+      <c r="O6" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6282254991016</v>
       </c>
-      <c r="Q6" s="40" t="s">
+      <c r="Q6" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="R6" s="37" t="s">
+      <c r="R6" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="S6" s="37" t="s">
+      <c r="S6" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="T6" s="37" t="s">
+      <c r="T6" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="U6" s="40" t="s">
+      <c r="U6" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="V6" s="37" t="s">
+      <c r="V6" s="34" t="s">
         <v>178</v>
       </c>
       <c r="AB6" s="11"/>
@@ -2098,7 +2165,7 @@
         <f t="shared" ref="A7:A34" si="0">A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="40">
         <v>46072</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -2107,7 +2174,7 @@
       <c r="D7" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="32" t="str">
+      <c r="E7" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6281545143654</v>
       </c>
@@ -2127,7 +2194,7 @@
         <f t="shared" ref="K7:K34" si="1">K6+1</f>
         <v>2</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L7" s="40">
         <v>46072</v>
       </c>
       <c r="M7" s="11" t="s">
@@ -2136,22 +2203,22 @@
       <c r="N7" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="O7" s="32" t="str">
+      <c r="O7" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6285345800531</v>
       </c>
-      <c r="Q7" s="41" t="s">
+      <c r="Q7" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="R7" s="38" t="s">
+      <c r="R7" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="S7" s="38" t="s">
+      <c r="S7" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="T7" s="38"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="38" t="s">
+      <c r="T7" s="35"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="35" t="s">
         <v>181</v>
       </c>
       <c r="X7" s="11"/>
@@ -2166,7 +2233,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="40">
         <v>46073</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -2175,7 +2242,7 @@
       <c r="D8" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="32" t="str">
+      <c r="E8" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6281341459342</v>
       </c>
@@ -2195,7 +2262,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L8" s="40">
         <v>46073</v>
       </c>
       <c r="M8" s="11" t="s">
@@ -2204,20 +2271,20 @@
       <c r="N8" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="O8" s="32" t="str">
+      <c r="O8" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6282274180206</v>
       </c>
-      <c r="Q8" s="48" t="s">
+      <c r="Q8" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="R8" s="45" t="s">
+      <c r="R8" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="S8" s="52" t="s">
+      <c r="S8" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="U8" s="48" t="s">
+      <c r="U8" s="44" t="s">
         <v>207</v>
       </c>
       <c r="X8" s="11"/>
@@ -2232,7 +2299,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="40">
         <v>46074</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -2241,7 +2308,7 @@
       <c r="D9" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="33" t="str">
+      <c r="E9" s="31" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6285156952623</v>
       </c>
@@ -2261,29 +2328,29 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="40">
         <v>46074</v>
       </c>
-      <c r="M9" s="45" t="s">
+      <c r="M9" s="42" t="s">
         <v>39</v>
       </c>
       <c r="N9" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="O9" s="33" t="str">
+      <c r="O9" s="31" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6285248770627</v>
       </c>
-      <c r="Q9" s="48" t="s">
+      <c r="Q9" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="R9" s="53" t="s">
+      <c r="R9" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="S9" s="52" t="s">
+      <c r="S9" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="U9" s="48" t="s">
+      <c r="U9" s="44" t="s">
         <v>207</v>
       </c>
       <c r="W9" s="11"/>
@@ -2299,7 +2366,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="40">
         <v>46075</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -2308,7 +2375,7 @@
       <c r="D10" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="32" t="str">
+      <c r="E10" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6285388898918</v>
       </c>
@@ -2328,7 +2395,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L10" s="43">
+      <c r="L10" s="40">
         <v>46075</v>
       </c>
       <c r="M10" s="11" t="s">
@@ -2337,7 +2404,7 @@
       <c r="N10" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="O10" s="32" t="str">
+      <c r="O10" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6285389333869</v>
       </c>
@@ -2359,7 +2426,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="40">
         <v>46076</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -2368,7 +2435,7 @@
       <c r="D11" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="32" t="str">
+      <c r="E11" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6282153442363</v>
       </c>
@@ -2388,7 +2455,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L11" s="43">
+      <c r="L11" s="40">
         <v>46076</v>
       </c>
       <c r="M11" s="11" t="s">
@@ -2397,7 +2464,7 @@
       <c r="N11" t="s">
         <v>143</v>
       </c>
-      <c r="O11" s="32" t="str">
+      <c r="O11" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6285754227966</v>
       </c>
@@ -2419,7 +2486,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="40">
         <v>46077</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -2428,7 +2495,7 @@
       <c r="D12" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="32" t="str">
+      <c r="E12" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6282274180206</v>
       </c>
@@ -2448,7 +2515,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="L12" s="43">
+      <c r="L12" s="40">
         <v>46077</v>
       </c>
       <c r="M12" s="11" t="s">
@@ -2457,7 +2524,7 @@
       <c r="N12" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="O12" s="32" t="str">
+      <c r="O12" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6282123226368</v>
       </c>
@@ -2479,7 +2546,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="40">
         <v>46078</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -2488,7 +2555,7 @@
       <c r="D13" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="32" t="str">
+      <c r="E13" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6282254991016</v>
       </c>
@@ -2508,7 +2575,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L13" s="43">
+      <c r="L13" s="40">
         <v>46078</v>
       </c>
       <c r="M13" s="11" t="s">
@@ -2517,7 +2584,7 @@
       <c r="N13" t="s">
         <v>143</v>
       </c>
-      <c r="O13" s="32" t="str">
+      <c r="O13" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6281351655536</v>
       </c>
@@ -2539,7 +2606,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="40">
         <v>46079</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -2548,7 +2615,7 @@
       <c r="D14" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="32" t="str">
+      <c r="E14" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6282252826688</v>
       </c>
@@ -2568,7 +2635,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L14" s="43">
+      <c r="L14" s="40">
         <v>46079</v>
       </c>
       <c r="M14" s="11" t="s">
@@ -2577,7 +2644,7 @@
       <c r="N14" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="O14" s="32" t="str">
+      <c r="O14" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6281324698218</v>
       </c>
@@ -2599,7 +2666,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="40">
         <v>46080</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -2608,7 +2675,7 @@
       <c r="D15" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="32" t="str">
+      <c r="E15" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6282123226368</v>
       </c>
@@ -2628,7 +2695,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L15" s="43">
+      <c r="L15" s="40">
         <v>46080</v>
       </c>
       <c r="M15" s="11" t="s">
@@ -2637,7 +2704,7 @@
       <c r="N15" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="32" t="str">
+      <c r="O15" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6285156952623</v>
       </c>
@@ -2659,7 +2726,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="40">
         <v>46081</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -2668,7 +2735,7 @@
       <c r="D16" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="32" t="str">
+      <c r="E16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6285754227966</v>
       </c>
@@ -2688,7 +2755,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="L16" s="43">
+      <c r="L16" s="40">
         <v>46081</v>
       </c>
       <c r="M16" s="11" t="s">
@@ -2697,7 +2764,7 @@
       <c r="N16" t="s">
         <v>143</v>
       </c>
-      <c r="O16" s="32" t="str">
+      <c r="O16" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6281545143654</v>
       </c>
@@ -2719,7 +2786,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="40">
         <v>46082</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -2728,7 +2795,7 @@
       <c r="D17" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="32" t="str">
+      <c r="E17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6285389333869</v>
       </c>
@@ -2748,7 +2815,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L17" s="43">
+      <c r="L17" s="40">
         <v>46082</v>
       </c>
       <c r="M17" s="11" t="s">
@@ -2757,7 +2824,7 @@
       <c r="N17" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="O17" s="32" t="str">
+      <c r="O17" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6282153442363</v>
       </c>
@@ -2779,13 +2846,13 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="40">
         <v>46083</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="32" t="str">
+      <c r="E18" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6281346326451</v>
       </c>
@@ -2805,13 +2872,13 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L18" s="43">
+      <c r="L18" s="40">
         <v>46083</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="O18" s="32" t="str">
+      <c r="O18" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6282254991016</v>
       </c>
@@ -2833,7 +2900,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="40">
         <v>46084</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -2842,7 +2909,7 @@
       <c r="D19" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="32" t="str">
+      <c r="E19" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6281351655536</v>
       </c>
@@ -2862,7 +2929,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L19" s="43">
+      <c r="L19" s="40">
         <v>46084</v>
       </c>
       <c r="M19" s="11" t="s">
@@ -2871,7 +2938,7 @@
       <c r="N19" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="O19" s="32" t="str">
+      <c r="O19" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6285345800531</v>
       </c>
@@ -2893,13 +2960,13 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="40">
         <v>46085</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="32" t="str">
+      <c r="E20" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6281324698218</v>
       </c>
@@ -2919,13 +2986,13 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="L20" s="43">
+      <c r="L20" s="40">
         <v>46085</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O20" s="32" t="str">
+      <c r="O20" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6282274180206</v>
       </c>
@@ -2947,7 +3014,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21" s="40">
         <v>46086</v>
       </c>
       <c r="C21" s="12" t="s">
@@ -2956,7 +3023,7 @@
       <c r="D21" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="32" t="str">
+      <c r="E21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6282252826688</v>
       </c>
@@ -2976,7 +3043,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="L21" s="43">
+      <c r="L21" s="40">
         <v>46086</v>
       </c>
       <c r="M21" s="11" t="s">
@@ -2985,7 +3052,7 @@
       <c r="N21" t="s">
         <v>143</v>
       </c>
-      <c r="O21" s="32" t="str">
+      <c r="O21" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+628985520616</v>
       </c>
@@ -3007,13 +3074,13 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="40">
         <v>46087</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="32" t="str">
+      <c r="E22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6281324698218</v>
       </c>
@@ -3033,13 +3100,13 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="L22" s="43">
+      <c r="L22" s="40">
         <v>46087</v>
       </c>
       <c r="M22" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="O22" s="32" t="str">
+      <c r="O22" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6281341459342</v>
       </c>
@@ -3061,7 +3128,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="40">
         <v>46088</v>
       </c>
       <c r="C23" s="12" t="s">
@@ -3070,7 +3137,7 @@
       <c r="D23" t="s">
         <v>143</v>
       </c>
-      <c r="E23" s="32" t="str">
+      <c r="E23" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6285345800531</v>
       </c>
@@ -3090,7 +3157,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="L23" s="43">
+      <c r="L23" s="40">
         <v>46088</v>
       </c>
       <c r="M23" s="11" t="s">
@@ -3099,7 +3166,7 @@
       <c r="N23" t="s">
         <v>143</v>
       </c>
-      <c r="O23" s="32" t="str">
+      <c r="O23" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6282123226368</v>
       </c>
@@ -3121,7 +3188,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B24" s="43">
+      <c r="B24" s="40">
         <v>46089</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -3130,7 +3197,7 @@
       <c r="D24" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E24" s="32" t="str">
+      <c r="E24" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+628985520616</v>
       </c>
@@ -3150,7 +3217,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="L24" s="43">
+      <c r="L24" s="40">
         <v>46089</v>
       </c>
       <c r="M24" s="11" t="s">
@@ -3159,7 +3226,7 @@
       <c r="N24" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="O24" s="32" t="str">
+      <c r="O24" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6281351655536</v>
       </c>
@@ -3181,7 +3248,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B25" s="43">
+      <c r="B25" s="40">
         <v>46090</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -3190,7 +3257,7 @@
       <c r="D25" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="32" t="str">
+      <c r="E25" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6281545143654</v>
       </c>
@@ -3210,7 +3277,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="L25" s="43">
+      <c r="L25" s="40">
         <v>46090</v>
       </c>
       <c r="M25" s="11" t="s">
@@ -3219,7 +3286,7 @@
       <c r="N25" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="O25" s="32" t="str">
+      <c r="O25" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6281324698218</v>
       </c>
@@ -3241,7 +3308,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B26" s="43">
+      <c r="B26" s="40">
         <v>46091</v>
       </c>
       <c r="C26" s="12" t="s">
@@ -3250,7 +3317,7 @@
       <c r="D26" t="s">
         <v>143</v>
       </c>
-      <c r="E26" s="32" t="str">
+      <c r="E26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6281324698218</v>
       </c>
@@ -3270,7 +3337,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="L26" s="43">
+      <c r="L26" s="40">
         <v>46091</v>
       </c>
       <c r="M26" s="11" t="s">
@@ -3279,7 +3346,7 @@
       <c r="N26" t="s">
         <v>143</v>
       </c>
-      <c r="O26" s="32" t="str">
+      <c r="O26" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6285156952623</v>
       </c>
@@ -3301,7 +3368,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B27" s="43">
+      <c r="B27" s="40">
         <v>46092</v>
       </c>
       <c r="C27" t="s">
@@ -3310,7 +3377,7 @@
       <c r="D27" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E27" s="33" t="str">
+      <c r="E27" s="31" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6285156952623</v>
       </c>
@@ -3327,7 +3394,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="L27" s="43">
+      <c r="L27" s="40">
         <v>46092</v>
       </c>
       <c r="M27" s="11" t="s">
@@ -3336,7 +3403,7 @@
       <c r="N27" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="O27" s="33" t="str">
+      <c r="O27" s="31" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6285754227966</v>
       </c>
@@ -3358,7 +3425,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B28" s="44">
+      <c r="B28" s="41">
         <v>46093</v>
       </c>
       <c r="C28" s="13" t="s">
@@ -3367,7 +3434,7 @@
       <c r="D28" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="32" t="str">
+      <c r="E28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6281350170682</v>
       </c>
@@ -3384,7 +3451,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="L28" s="44">
+      <c r="L28" s="41">
         <v>46093</v>
       </c>
       <c r="M28" s="11" t="s">
@@ -3393,7 +3460,7 @@
       <c r="N28" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="O28" s="32" t="str">
+      <c r="O28" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6282123226368</v>
       </c>
@@ -3415,7 +3482,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B29" s="44">
+      <c r="B29" s="41">
         <v>46094</v>
       </c>
       <c r="C29" t="s">
@@ -3424,7 +3491,7 @@
       <c r="D29" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E29" s="32" t="str">
+      <c r="E29" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6281341459342</v>
       </c>
@@ -3441,7 +3508,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="L29" s="44">
+      <c r="L29" s="41">
         <v>46094</v>
       </c>
       <c r="M29" s="11" t="s">
@@ -3450,7 +3517,7 @@
       <c r="N29" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="O29" s="32" t="str">
+      <c r="O29" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+628985520616</v>
       </c>
@@ -3472,7 +3539,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B30" s="44">
+      <c r="B30" s="41">
         <v>46095</v>
       </c>
       <c r="C30" t="s">
@@ -3481,7 +3548,7 @@
       <c r="D30" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E30" s="32" t="str">
+      <c r="E30" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6285156952623</v>
       </c>
@@ -3499,7 +3566,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="L30" s="44">
+      <c r="L30" s="41">
         <v>46095</v>
       </c>
       <c r="M30" s="11" t="s">
@@ -3508,7 +3575,7 @@
       <c r="N30" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="O30" s="32" t="str">
+      <c r="O30" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6285345800531</v>
       </c>
@@ -3530,7 +3597,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B31" s="44">
+      <c r="B31" s="41">
         <v>46096</v>
       </c>
       <c r="C31" t="s">
@@ -3539,7 +3606,7 @@
       <c r="D31" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="32" t="str">
+      <c r="E31" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6285388898918</v>
       </c>
@@ -3556,7 +3623,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="L31" s="44">
+      <c r="L31" s="41">
         <v>46096</v>
       </c>
       <c r="M31" s="11" t="s">
@@ -3565,7 +3632,7 @@
       <c r="N31" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="O31" s="32" t="str">
+      <c r="O31" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6282274180206</v>
       </c>
@@ -3587,7 +3654,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B32" s="44">
+      <c r="B32" s="41">
         <v>46097</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -3596,7 +3663,7 @@
       <c r="D32" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E32" s="32" t="str">
+      <c r="E32" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6282123226368</v>
       </c>
@@ -3613,7 +3680,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="L32" s="44">
+      <c r="L32" s="41">
         <v>46097</v>
       </c>
       <c r="M32" s="11" t="s">
@@ -3622,7 +3689,7 @@
       <c r="N32" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="O32" s="32" t="str">
+      <c r="O32" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6285389333869</v>
       </c>
@@ -3644,7 +3711,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B33" s="44">
+      <c r="B33" s="41">
         <v>46098</v>
       </c>
       <c r="C33" t="s">
@@ -3653,7 +3720,7 @@
       <c r="D33" t="s">
         <v>143</v>
       </c>
-      <c r="E33" s="32" t="str">
+      <c r="E33" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6282254991016</v>
       </c>
@@ -3670,7 +3737,7 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="L33" s="44">
+      <c r="L33" s="41">
         <v>46098</v>
       </c>
       <c r="M33" s="11" t="s">
@@ -3679,7 +3746,7 @@
       <c r="N33" t="s">
         <v>143</v>
       </c>
-      <c r="O33" s="32" t="str">
+      <c r="O33" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6285388898918</v>
       </c>
@@ -3701,7 +3768,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B34" s="44">
+      <c r="B34" s="41">
         <v>46099</v>
       </c>
       <c r="C34" t="s">
@@ -3710,7 +3777,7 @@
       <c r="D34" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E34" s="32" t="str">
+      <c r="E34" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6282274180206</v>
       </c>
@@ -3727,7 +3794,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="L34" s="44">
+      <c r="L34" s="41">
         <v>46099</v>
       </c>
       <c r="M34" s="11" t="s">
@@ -3736,7 +3803,7 @@
       <c r="N34" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="O34" s="32" t="str">
+      <c r="O34" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6282254991016</v>
       </c>
@@ -3774,17 +3841,17 @@
       <c r="AD35" s="11"/>
     </row>
     <row r="36" spans="1:30">
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
@@ -3819,7 +3886,7 @@
       <c r="G38" t="s">
         <v>140</v>
       </c>
-      <c r="H38" s="34" t="s">
+      <c r="H38" s="32" t="s">
         <v>169</v>
       </c>
       <c r="Q38" s="11"/>
@@ -4244,13 +4311,13 @@
     <row r="57" spans="3:11">
       <c r="C57" s="25"/>
       <c r="D57" s="28"/>
-      <c r="F57" s="45" t="s">
+      <c r="F57" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="G57" s="46" t="s">
+      <c r="G57" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="H57" s="47">
+      <c r="H57">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
         <v>0</v>
       </c>
@@ -4561,18 +4628,18 @@
     <mergeCell ref="K3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:C34 C40:C66">
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>IF(C6="", TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H34">
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
-      <formula>C6</formula>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>IF(F57="", TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M9">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
-      <formula>IF(M9="", TRUE, FALSE)</formula>
+  <conditionalFormatting sqref="H6:H34">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>C6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H57">
@@ -4587,9 +4654,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
-      <formula>IF(F57="", TRUE, FALSE)</formula>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>IF(M9="", TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4605,35 +4672,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E773B5-9BD6-450E-BCDE-877D76BB9F3C}">
-  <dimension ref="A1:B19"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>167</v>
       </c>
       <c r="B1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="D1" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="50"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="50"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="26" t="s">
         <v>104</v>
       </c>
@@ -4641,143 +4726,506 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:7" ht="24.75" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>146</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="24.75" customHeight="1">
       <c r="A5" s="25" t="s">
         <v>130</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="51">
+        <v>46071</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" ht="24.75" customHeight="1">
       <c r="A6" s="26" t="s">
         <v>124</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6" s="5">
+        <f t="shared" ref="D6:D33" si="0">D5+1</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="51">
+        <v>46072</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" ht="24.75" customHeight="1">
       <c r="A7" s="25" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E7" s="51">
+        <v>46073</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" ht="24.75" customHeight="1">
       <c r="A8" s="26" t="s">
         <v>71</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E8" s="51">
+        <v>46074</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" ht="24.75" customHeight="1">
       <c r="A9" s="25" t="s">
         <v>101</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E9" s="51">
+        <v>46075</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" ht="24.75" customHeight="1">
       <c r="A10" s="26" t="s">
         <v>123</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E10" s="51">
+        <v>46076</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="24.75" customHeight="1">
       <c r="A11" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E11" s="51">
+        <v>46077</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" ht="24.75" customHeight="1">
       <c r="A12" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E12" s="51">
+        <v>46078</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="24.75" customHeight="1">
       <c r="A13" s="25" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E13" s="51">
+        <v>46079</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" ht="24.75" customHeight="1">
       <c r="A14" s="26" t="s">
         <v>141</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E14" s="51">
+        <v>46080</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" ht="24.75" customHeight="1">
       <c r="A15" s="25" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E15" s="51">
+        <v>46081</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="24.75" customHeight="1">
       <c r="A16" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E16" s="51">
+        <v>46082</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" ht="24.75" customHeight="1">
       <c r="A17" s="26" t="s">
         <v>128</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E17" s="51">
+        <v>46083</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="24.75" customHeight="1">
       <c r="A18" s="26" t="s">
         <v>135</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E18" s="51">
+        <v>46084</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" ht="24.75" customHeight="1">
       <c r="A19" s="25" t="s">
         <v>127</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>164</v>
       </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E19" s="51">
+        <v>46085</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="24.75" customHeight="1">
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E20" s="51">
+        <v>46086</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="24.75" customHeight="1">
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E21" s="51">
+        <v>46087</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="24.75" customHeight="1">
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E22" s="51">
+        <v>46088</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="24.75" customHeight="1">
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E23" s="51">
+        <v>46089</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" ht="24.75" customHeight="1">
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E24" s="51">
+        <v>46090</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" ht="24.75" customHeight="1">
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E25" s="51">
+        <v>46091</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="24.75" customHeight="1">
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E26" s="51">
+        <v>46092</v>
+      </c>
+      <c r="F26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" ht="24.75" customHeight="1">
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E27" s="52">
+        <v>46093</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" ht="24.75" customHeight="1">
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E28" s="52">
+        <v>46094</v>
+      </c>
+      <c r="F28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" ht="24.75" customHeight="1">
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E29" s="52">
+        <v>46095</v>
+      </c>
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" ht="24.75" customHeight="1">
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E30" s="52">
+        <v>46096</v>
+      </c>
+      <c r="F30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" ht="24.75" customHeight="1">
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E31" s="52">
+        <v>46097</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" ht="24.75" customHeight="1">
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E32" s="52">
+        <v>46098</v>
+      </c>
+      <c r="F32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" ht="24.75" customHeight="1">
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E33" s="52">
+        <v>46099</v>
+      </c>
+      <c r="F33" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="35" spans="4:7">
+      <c r="D35" s="53" t="s">
+        <v>211</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+  </mergeCells>
   <conditionalFormatting sqref="A2:A19">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>IF(A2="", TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F33">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>IF(F5="", TRUE, FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5037,12 +5485,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -5053,12 +5501,12 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -6001,7 +6449,7 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C34">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7073,11 +7521,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -7087,11 +7535,11 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>

--- a/2026.xlsx
+++ b/2026.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ASATIDZ\Zen\jadwal-imam-tarawih\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jadwal-imam-tarawih\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453E76D8-263F-4B3C-9366-3445C7E63CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E964835D-3FC3-4DAE-A26F-8B586651C534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pak Gatot" sheetId="2" r:id="rId1"/>
@@ -30,12 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="192">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -575,57 +570,6 @@
     <t>Pengulangan</t>
   </si>
   <si>
-    <t>Nomor WA Tujuan</t>
-  </si>
-  <si>
-    <t>Judul</t>
-  </si>
-  <si>
-    <t>Pesan</t>
-  </si>
-  <si>
-    <t>URL Gambar</t>
-  </si>
-  <si>
-    <t>Jadwal Kirim Pesan (WIB)</t>
-  </si>
-  <si>
-    <t>Judul Pesan 1</t>
-  </si>
-  <si>
-    <t>Isi pesan WhatsApp di sini</t>
-  </si>
-  <si>
-    <t>https://example.com/image.jpg</t>
-  </si>
-  <si>
-    <t>tiap pekan</t>
-  </si>
-  <si>
-    <t>Judul Pesan 2</t>
-  </si>
-  <si>
-    <t>Isi pesan kedua di sini</t>
-  </si>
-  <si>
-    <t>tiap bulan</t>
-  </si>
-  <si>
-    <t>081234567890</t>
-  </si>
-  <si>
-    <t>089876543210</t>
-  </si>
-  <si>
-    <t>Yang kolom pertama nggak perlu diisi</t>
-  </si>
-  <si>
-    <t>Tes</t>
-  </si>
-  <si>
-    <t>2025-12-31 12:33:02</t>
-  </si>
-  <si>
     <t>+6281545143654</t>
   </si>
   <si>
@@ -686,36 +630,33 @@
     <t>+6285248770627</t>
   </si>
   <si>
-    <t>2020-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>Halo\n\nHai</t>
-  </si>
-  <si>
-    <t>Tes 2</t>
-  </si>
-  <si>
-    <t>Halo\nHai\n\nSemuanya…</t>
-  </si>
-  <si>
     <t>Contact person : 0815-4514-3654 (Zen)</t>
+  </si>
+  <si>
+    <t>Ananda Afkar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="167" formatCode="[$-421]dddd\,\ dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-421]dddd\,\ dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -905,10 +846,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -932,43 +873,43 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -977,10 +918,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -992,76 +933,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1069,42 +1010,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="28">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="[$-421]dddd\,\ dd\ mmmm\ yyyy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1164,6 +1069,24 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-421]dddd\,\ dd\ mmmm\ yyyy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-421]dddd\,\ dd\ mmmm\ yyyy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1272,6 +1195,32 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="[$-421]dddd\,\ dd\ mmmm\ yyyy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1321,10 +1270,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1414,10 +1359,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1474,8 +1415,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1522,8 +1463,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1568,8 +1509,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -1620,10 +1561,10 @@
     <tableColumn id="1" xr3:uid="{EDA3354A-D911-4857-BDFD-2A76F68799B6}" name="Nomor" dataDxfId="26">
       <calculatedColumnFormula>A5+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EE32957E-B020-43A5-93B6-4F4983A5B8C5}" name="Tanggal" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{EE32957E-B020-43A5-93B6-4F4983A5B8C5}" name="Tanggal" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{474FEB94-AA9D-4225-84A8-CAE68BC78718}" name="Imam"/>
     <tableColumn id="4" xr3:uid="{E9CF7577-A218-4BFC-BD73-D8F2523F2B45}" name="Keterangan"/>
-    <tableColumn id="5" xr3:uid="{11BF8C20-01CD-49CD-96D6-A73B48384BCF}" name="Nomor WA" dataDxfId="24">
+    <tableColumn id="5" xr3:uid="{11BF8C20-01CD-49CD-96D6-A73B48384BCF}" name="Nomor WA" dataDxfId="25">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1632,15 +1573,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D9530C33-B6B5-4115-9923-45D7AFE34439}" name="Table35" displayName="Table35" ref="F38:H57" totalsRowShown="0" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D9530C33-B6B5-4115-9923-45D7AFE34439}" name="Table35" displayName="Table35" ref="F38:H57" totalsRowShown="0" tableBorderDxfId="24">
   <autoFilter ref="F38:H57" xr:uid="{D9530C33-B6B5-4115-9923-45D7AFE34439}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F39:G56">
     <sortCondition ref="F1:F19"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F724475A-A50A-4C3B-815A-F4FD22C8480A}" name="Nama" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{FF44FB9B-A317-41C3-9E91-41A8D60563FD}" name="Nomor WA" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{1A922AE0-1ED0-4A04-AAF7-5D85C9B067EF}" name="Pengulangan" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{F724475A-A50A-4C3B-815A-F4FD22C8480A}" name="Nama" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{FF44FB9B-A317-41C3-9E91-41A8D60563FD}" name="Nomor WA" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{1A922AE0-1ED0-4A04-AAF7-5D85C9B067EF}" name="Pengulangan" dataDxfId="21">
       <calculatedColumnFormula>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1649,16 +1590,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ED39EA5A-A81E-4D32-8B64-273C7A8F6950}" name="Table16" displayName="Table16" ref="K5:O34" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ED39EA5A-A81E-4D32-8B64-273C7A8F6950}" name="Table16" displayName="Table16" ref="K5:O34" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="K5:O34" xr:uid="{4CDDEFDD-9B9A-4132-B3F2-84E308C2EBE7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7DEC5B5B-9500-4D9B-A1CE-235D25215B3C}" name="Nomor" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{7DEC5B5B-9500-4D9B-A1CE-235D25215B3C}" name="Nomor" dataDxfId="19">
       <calculatedColumnFormula>K5+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{1E1369C1-C29E-4040-9295-EB68CA1DA6EB}" name="Tanggal" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{1E1369C1-C29E-4040-9295-EB68CA1DA6EB}" name="Tanggal" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{BCFEBDF1-F84F-4997-88AF-EBE87A6CECF2}" name="Imam"/>
     <tableColumn id="4" xr3:uid="{0425DBC4-EE39-4081-9C40-C58050634AC8}" name="Keterangan"/>
-    <tableColumn id="5" xr3:uid="{8DEC3263-BB8F-4EFB-B746-F94FE8E58523}" name="Nomor WA" dataDxfId="16">
+    <tableColumn id="5" xr3:uid="{8DEC3263-BB8F-4EFB-B746-F94FE8E58523}" name="Nomor WA" dataDxfId="18">
       <calculatedColumnFormula>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1667,27 +1608,27 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2A622B11-EC89-4AF0-9DF4-FB14C2B1C37F}" name="Table3" displayName="Table3" ref="A1:B19" totalsRowShown="0" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2A622B11-EC89-4AF0-9DF4-FB14C2B1C37F}" name="Table3" displayName="Table3" ref="A1:B19" totalsRowShown="0" tableBorderDxfId="17">
   <autoFilter ref="A1:B19" xr:uid="{2A622B11-EC89-4AF0-9DF4-FB14C2B1C37F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B19">
     <sortCondition ref="A1:A19"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{2AB0227A-689E-434E-BE31-2D3674F24B79}" name="Nama"/>
-    <tableColumn id="2" xr3:uid="{BBECE007-5A72-4694-9062-83FE01F91734}" name="Nomor WA" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{BBECE007-5A72-4694-9062-83FE01F91734}" name="Nomor WA" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ADBB7919-983C-4A81-943C-7BE32581A239}" name="Table6" displayName="Table6" ref="D4:F33" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ADBB7919-983C-4A81-943C-7BE32581A239}" name="Table6" displayName="Table6" ref="D4:F33" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="D4:F33" xr:uid="{ADBB7919-983C-4A81-943C-7BE32581A239}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{06541388-4626-4805-B1F9-FC1821F3A31C}" name="Nomor" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{06541388-4626-4805-B1F9-FC1821F3A31C}" name="Nomor" dataDxfId="14">
       <calculatedColumnFormula>D4+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EE963465-C328-4312-B15E-4A20CF1192DA}" name="Tanggal" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{EE963465-C328-4312-B15E-4A20CF1192DA}" name="Tanggal" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{2319CD13-1A84-4F52-83BD-5FB5EB6DAAA8}" name="Imam"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1695,14 +1636,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B463BB1F-E51B-43C0-AA2F-E1D6DB3DDCF7}" name="Table2" displayName="Table2" ref="A1:B30" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B463BB1F-E51B-43C0-AA2F-E1D6DB3DDCF7}" name="Table2" displayName="Table2" ref="A1:B30" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A1:B30" xr:uid="{B463BB1F-E51B-43C0-AA2F-E1D6DB3DDCF7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A0750327-460A-4848-BB77-C819467CC83E}" name="Nama" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{97DD37ED-3D7B-4850-8D30-26BB8E10C618}" name="Nomor WA" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{A0750327-460A-4848-BB77-C819467CC83E}" name="Nama" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{97DD37ED-3D7B-4850-8D30-26BB8E10C618}" name="Nomor WA" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1968,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AD84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1984,7 +1925,7 @@
     <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -1993,12 +1934,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -2008,31 +1949,31 @@
       <c r="J2" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="K3" s="49" t="s">
-        <v>205</v>
-      </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-    </row>
-    <row r="5" spans="1:30" ht="36">
+      <c r="K3" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>136</v>
       </c>
@@ -2068,36 +2009,22 @@
       <c r="O5" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="Q5" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="R5" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="S5" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="T5" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="U5" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="V5" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="W5" s="39" t="s">
-        <v>184</v>
-      </c>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="39"/>
       <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
     </row>
-    <row r="6" spans="1:30" ht="48.75" thickBot="1">
+    <row r="6" spans="1:30" ht="15.75" thickBot="1">
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="46">
         <v>46071</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -2125,7 +2052,7 @@
       <c r="K6" s="5">
         <v>1</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="46">
         <v>46071</v>
       </c>
       <c r="M6" s="11" t="s">
@@ -2138,34 +2065,22 @@
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6282254991016</v>
       </c>
-      <c r="Q6" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="R6" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="S6" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="T6" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="U6" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="V6" s="34" t="s">
-        <v>178</v>
-      </c>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="34"/>
       <c r="AB6" s="11"/>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
     </row>
-    <row r="7" spans="1:30" ht="36">
+    <row r="7" spans="1:30">
       <c r="A7" s="5">
         <f t="shared" ref="A7:A34" si="0">A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="46">
         <v>46072</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -2194,7 +2109,7 @@
         <f t="shared" ref="K7:K34" si="1">K6+1</f>
         <v>2</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="46">
         <v>46072</v>
       </c>
       <c r="M7" s="11" t="s">
@@ -2207,20 +2122,12 @@
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6285345800531</v>
       </c>
-      <c r="Q7" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="R7" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="S7" s="35" t="s">
-        <v>180</v>
-      </c>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
       <c r="T7" s="35"/>
       <c r="U7" s="38"/>
-      <c r="V7" s="35" t="s">
-        <v>181</v>
-      </c>
+      <c r="V7" s="35"/>
       <c r="X7" s="11"/>
       <c r="Z7" s="11"/>
       <c r="AA7" s="11"/>
@@ -2228,12 +2135,12 @@
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
     </row>
-    <row r="8" spans="1:30" ht="30">
+    <row r="8" spans="1:30">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="46">
         <v>46073</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -2262,31 +2169,22 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="46">
         <v>46073</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="N8" s="13" t="s">
         <v>143</v>
       </c>
       <c r="O8" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>+6282274180206</v>
-      </c>
-      <c r="Q8" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="R8" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="S8" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="U8" s="44" t="s">
-        <v>207</v>
-      </c>
+        <v>+6281545143654</v>
+      </c>
+      <c r="R8" s="40"/>
+      <c r="S8" s="43"/>
+      <c r="U8" s="42"/>
       <c r="X8" s="11"/>
       <c r="Z8" s="11"/>
       <c r="AA8" s="11"/>
@@ -2294,12 +2192,12 @@
       <c r="AC8" s="11"/>
       <c r="AD8" s="11"/>
     </row>
-    <row r="9" spans="1:30" ht="60">
+    <row r="9" spans="1:30">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="46">
         <v>46074</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -2328,10 +2226,10 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="46">
         <v>46074</v>
       </c>
-      <c r="M9" s="42" t="s">
+      <c r="M9" s="40" t="s">
         <v>39</v>
       </c>
       <c r="N9" s="13" t="s">
@@ -2341,18 +2239,10 @@
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
         <v>+6285248770627</v>
       </c>
-      <c r="Q9" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="R9" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="S9" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="U9" s="44" t="s">
-        <v>207</v>
-      </c>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="43"/>
+      <c r="U9" s="42"/>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
       <c r="Z9" s="11"/>
@@ -2366,7 +2256,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="46">
         <v>46075</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -2395,7 +2285,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="46">
         <v>46075</v>
       </c>
       <c r="M10" s="11" t="s">
@@ -2426,7 +2316,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="46">
         <v>46076</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -2455,7 +2345,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L11" s="40">
+      <c r="L11" s="46">
         <v>46076</v>
       </c>
       <c r="M11" s="11" t="s">
@@ -2486,18 +2376,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="46">
         <v>46077</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>71</v>
+      <c r="C12" s="52" t="s">
+        <v>191</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>+6282274180206</v>
+        <v>#N/A</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>30</v>
@@ -2515,7 +2405,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="46">
         <v>46077</v>
       </c>
       <c r="M12" s="11" t="s">
@@ -2546,7 +2436,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="46">
         <v>46078</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -2575,7 +2465,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="46">
         <v>46078</v>
       </c>
       <c r="M13" s="11" t="s">
@@ -2606,7 +2496,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="46">
         <v>46079</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -2635,7 +2525,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="46">
         <v>46079</v>
       </c>
       <c r="M14" s="11" t="s">
@@ -2666,7 +2556,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="46">
         <v>46080</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -2695,7 +2585,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L15" s="40">
+      <c r="L15" s="46">
         <v>46080</v>
       </c>
       <c r="M15" s="11" t="s">
@@ -2726,7 +2616,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="46">
         <v>46081</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -2755,18 +2645,18 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="46">
         <v>46081</v>
       </c>
-      <c r="M16" s="11" t="s">
-        <v>127</v>
+      <c r="M16" s="53" t="s">
+        <v>71</v>
       </c>
       <c r="N16" t="s">
         <v>143</v>
       </c>
       <c r="O16" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>+6281545143654</v>
+        <v>+6282274180206</v>
       </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
@@ -2786,7 +2676,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="46">
         <v>46082</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -2815,7 +2705,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L17" s="40">
+      <c r="L17" s="46">
         <v>46082</v>
       </c>
       <c r="M17" s="11" t="s">
@@ -2846,7 +2736,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="46">
         <v>46083</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -2872,7 +2762,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="46">
         <v>46083</v>
       </c>
       <c r="M18" s="11" t="s">
@@ -2900,7 +2790,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B19" s="46">
         <v>46084</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -2929,7 +2819,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L19" s="40">
+      <c r="L19" s="46">
         <v>46084</v>
       </c>
       <c r="M19" s="11" t="s">
@@ -2960,7 +2850,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B20" s="46">
         <v>46085</v>
       </c>
       <c r="C20" s="32" t="s">
@@ -2986,7 +2876,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="L20" s="40">
+      <c r="L20" s="46">
         <v>46085</v>
       </c>
       <c r="M20" s="11" t="s">
@@ -3014,7 +2904,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B21" s="40">
+      <c r="B21" s="46">
         <v>46086</v>
       </c>
       <c r="C21" s="12" t="s">
@@ -3043,7 +2933,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="L21" s="40">
+      <c r="L21" s="46">
         <v>46086</v>
       </c>
       <c r="M21" s="11" t="s">
@@ -3074,7 +2964,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B22" s="40">
+      <c r="B22" s="46">
         <v>46087</v>
       </c>
       <c r="C22" s="32" t="s">
@@ -3100,7 +2990,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="L22" s="40">
+      <c r="L22" s="46">
         <v>46087</v>
       </c>
       <c r="M22" s="11" t="s">
@@ -3128,7 +3018,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B23" s="40">
+      <c r="B23" s="46">
         <v>46088</v>
       </c>
       <c r="C23" s="12" t="s">
@@ -3157,7 +3047,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="L23" s="40">
+      <c r="L23" s="46">
         <v>46088</v>
       </c>
       <c r="M23" s="11" t="s">
@@ -3188,7 +3078,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B24" s="40">
+      <c r="B24" s="46">
         <v>46089</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -3217,7 +3107,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="L24" s="40">
+      <c r="L24" s="46">
         <v>46089</v>
       </c>
       <c r="M24" s="11" t="s">
@@ -3248,7 +3138,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="46">
         <v>46090</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -3277,7 +3167,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="L25" s="40">
+      <c r="L25" s="46">
         <v>46090</v>
       </c>
       <c r="M25" s="11" t="s">
@@ -3308,7 +3198,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="46">
         <v>46091</v>
       </c>
       <c r="C26" s="12" t="s">
@@ -3337,7 +3227,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="L26" s="40">
+      <c r="L26" s="46">
         <v>46091</v>
       </c>
       <c r="M26" s="11" t="s">
@@ -3368,7 +3258,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="46">
         <v>46092</v>
       </c>
       <c r="C27" t="s">
@@ -3394,7 +3284,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="L27" s="40">
+      <c r="L27" s="46">
         <v>46092</v>
       </c>
       <c r="M27" s="11" t="s">
@@ -3425,7 +3315,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="47">
         <v>46093</v>
       </c>
       <c r="C28" s="13" t="s">
@@ -3451,7 +3341,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="L28" s="41">
+      <c r="L28" s="47">
         <v>46093</v>
       </c>
       <c r="M28" s="11" t="s">
@@ -3482,7 +3372,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="47">
         <v>46094</v>
       </c>
       <c r="C29" t="s">
@@ -3508,7 +3398,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="L29" s="41">
+      <c r="L29" s="47">
         <v>46094</v>
       </c>
       <c r="M29" s="11" t="s">
@@ -3539,7 +3429,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="47">
         <v>46095</v>
       </c>
       <c r="C30" t="s">
@@ -3566,7 +3456,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="L30" s="41">
+      <c r="L30" s="47">
         <v>46095</v>
       </c>
       <c r="M30" s="11" t="s">
@@ -3597,7 +3487,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="47">
         <v>46096</v>
       </c>
       <c r="C31" t="s">
@@ -3623,7 +3513,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="L31" s="41">
+      <c r="L31" s="47">
         <v>46096</v>
       </c>
       <c r="M31" s="11" t="s">
@@ -3654,7 +3544,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="47">
         <v>46097</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -3680,7 +3570,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="L32" s="41">
+      <c r="L32" s="47">
         <v>46097</v>
       </c>
       <c r="M32" s="11" t="s">
@@ -3711,7 +3601,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="47">
         <v>46098</v>
       </c>
       <c r="C33" t="s">
@@ -3737,7 +3627,7 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="L33" s="41">
+      <c r="L33" s="47">
         <v>46098</v>
       </c>
       <c r="M33" s="11" t="s">
@@ -3768,7 +3658,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B34" s="41">
+      <c r="B34" s="47">
         <v>46099</v>
       </c>
       <c r="C34" t="s">
@@ -3794,7 +3684,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="L34" s="41">
+      <c r="L34" s="47">
         <v>46099</v>
       </c>
       <c r="M34" s="11" t="s">
@@ -3841,17 +3731,17 @@
       <c r="AD35" s="11"/>
     </row>
     <row r="36" spans="1:30">
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
@@ -3907,7 +3797,7 @@
         <v>129</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="H39">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -3939,7 +3829,7 @@
         <v>104</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="H40">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -3971,7 +3861,7 @@
         <v>146</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="H41">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -4003,7 +3893,7 @@
         <v>130</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="H42">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -4035,7 +3925,7 @@
         <v>124</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="H43">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -4055,7 +3945,7 @@
         <v>131</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="H44">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -4075,11 +3965,11 @@
         <v>71</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="H45">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>30</v>
@@ -4095,7 +3985,7 @@
         <v>101</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="H46">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -4115,7 +4005,7 @@
         <v>123</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="H47">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -4135,7 +4025,7 @@
         <v>53</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="H48">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -4155,7 +4045,7 @@
         <v>132</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="H49">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -4175,7 +4065,7 @@
         <v>63</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="H50">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -4195,7 +4085,7 @@
         <v>141</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="H51">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -4215,7 +4105,7 @@
         <v>48</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="H52">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -4235,7 +4125,7 @@
         <v>34</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="H53">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -4255,7 +4145,7 @@
         <v>128</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="H54">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -4275,7 +4165,7 @@
         <v>135</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="H55">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -4295,7 +4185,7 @@
         <v>127</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="H56">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -4311,11 +4201,11 @@
     <row r="57" spans="3:11">
       <c r="C57" s="25"/>
       <c r="D57" s="28"/>
-      <c r="F57" s="42" t="s">
+      <c r="F57" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="G57" s="43" t="s">
-        <v>206</v>
+      <c r="G57" s="41" t="s">
+        <v>189</v>
       </c>
       <c r="H57">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
@@ -4345,7 +4235,7 @@
         <v>129</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>24</v>
@@ -4361,7 +4251,7 @@
         <v>104</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="H60" s="11"/>
       <c r="J60" s="3" t="s">
@@ -4378,7 +4268,7 @@
         <v>146</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="H61" s="11"/>
       <c r="J61" s="3" t="s">
@@ -4395,7 +4285,7 @@
         <v>130</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="H62" s="11"/>
       <c r="J62" s="3" t="s">
@@ -4412,7 +4302,7 @@
         <v>124</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="H63" s="11"/>
       <c r="J63" s="3" t="s">
@@ -4429,7 +4319,7 @@
         <v>131</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="H64" s="11"/>
       <c r="J64" s="3" t="s">
@@ -4446,7 +4336,7 @@
         <v>71</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="H65" s="11"/>
       <c r="J65" s="3" t="s">
@@ -4463,7 +4353,7 @@
         <v>101</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="H66" s="11"/>
       <c r="J66" s="3" t="s">
@@ -4478,7 +4368,7 @@
         <v>123</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="H67" s="11"/>
       <c r="J67" s="3" t="s">
@@ -4493,7 +4383,7 @@
         <v>53</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="H68" s="11"/>
       <c r="J68" s="3" t="s">
@@ -4509,7 +4399,7 @@
         <v>132</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="H69" s="11"/>
     </row>
@@ -4518,7 +4408,7 @@
         <v>63</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="H70" s="11"/>
     </row>
@@ -4527,7 +4417,7 @@
         <v>141</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="H71" s="11"/>
     </row>
@@ -4536,7 +4426,7 @@
         <v>48</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="H72" s="11"/>
     </row>
@@ -4545,7 +4435,7 @@
         <v>34</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="H73" s="11"/>
     </row>
@@ -4554,7 +4444,7 @@
         <v>128</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="H74" s="11"/>
     </row>
@@ -4563,7 +4453,7 @@
         <v>135</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="H75" s="11"/>
     </row>
@@ -4572,7 +4462,7 @@
         <v>127</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="H76" s="11"/>
     </row>
@@ -4628,17 +4518,17 @@
     <mergeCell ref="K3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:C34 C40:C66">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>IF(C6="", TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>IF(F57="", TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H34">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>C6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4655,7 +4545,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>IF(M9="", TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4677,7 +4567,7 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -4697,12 +4587,12 @@
       <c r="B1" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="26" t="s">
@@ -4711,12 +4601,12 @@
       <c r="B2" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="26" t="s">
@@ -4754,7 +4644,7 @@
       <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="46">
         <v>46071</v>
       </c>
       <c r="F5" s="12" t="s">
@@ -4773,7 +4663,7 @@
         <f t="shared" ref="D6:D33" si="0">D5+1</f>
         <v>2</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="46">
         <v>46072</v>
       </c>
       <c r="F6" s="12" t="s">
@@ -4792,7 +4682,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="46">
         <v>46073</v>
       </c>
       <c r="F7" s="12" t="s">
@@ -4811,7 +4701,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="46">
         <v>46074</v>
       </c>
       <c r="F8" s="12" t="s">
@@ -4830,7 +4720,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="46">
         <v>46075</v>
       </c>
       <c r="F9" s="12" t="s">
@@ -4849,7 +4739,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="46">
         <v>46076</v>
       </c>
       <c r="F10" s="12" t="s">
@@ -4867,7 +4757,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="46">
         <v>46077</v>
       </c>
       <c r="F11" s="12" t="s">
@@ -4886,7 +4776,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="46">
         <v>46078</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -4904,7 +4794,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="46">
         <v>46079</v>
       </c>
       <c r="F13" s="12" t="s">
@@ -4923,7 +4813,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="46">
         <v>46080</v>
       </c>
       <c r="F14" s="12" t="s">
@@ -4942,7 +4832,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="46">
         <v>46081</v>
       </c>
       <c r="F15" s="12" t="s">
@@ -4960,7 +4850,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="46">
         <v>46082</v>
       </c>
       <c r="F16" s="12" t="s">
@@ -4979,7 +4869,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="46">
         <v>46083</v>
       </c>
       <c r="F17" s="12" t="s">
@@ -4997,7 +4887,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="46">
         <v>46084</v>
       </c>
       <c r="F18" s="12" t="s">
@@ -5016,7 +4906,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="46">
         <v>46085</v>
       </c>
       <c r="F19" s="32" t="s">
@@ -5028,7 +4918,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="46">
         <v>46086</v>
       </c>
       <c r="F20" s="12" t="s">
@@ -5040,7 +4930,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="46">
         <v>46087</v>
       </c>
       <c r="F21" s="32" t="s">
@@ -5052,7 +4942,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="46">
         <v>46088</v>
       </c>
       <c r="F22" s="12" t="s">
@@ -5064,7 +4954,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="46">
         <v>46089</v>
       </c>
       <c r="F23" s="12" t="s">
@@ -5077,7 +4967,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E24" s="51">
+      <c r="E24" s="46">
         <v>46090</v>
       </c>
       <c r="F24" s="12" t="s">
@@ -5090,7 +4980,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="46">
         <v>46091</v>
       </c>
       <c r="F25" s="12" t="s">
@@ -5102,7 +4992,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="46">
         <v>46092</v>
       </c>
       <c r="F26" t="s">
@@ -5115,7 +5005,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="47">
         <v>46093</v>
       </c>
       <c r="F27" s="13" t="s">
@@ -5128,7 +5018,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="47">
         <v>46094</v>
       </c>
       <c r="F28" t="s">
@@ -5141,7 +5031,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="47">
         <v>46095</v>
       </c>
       <c r="F29" t="s">
@@ -5154,7 +5044,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E30" s="47">
         <v>46096</v>
       </c>
       <c r="F30" t="s">
@@ -5167,7 +5057,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="E31" s="52">
+      <c r="E31" s="47">
         <v>46097</v>
       </c>
       <c r="F31" s="12" t="s">
@@ -5180,7 +5070,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="E32" s="52">
+      <c r="E32" s="47">
         <v>46098</v>
       </c>
       <c r="F32" t="s">
@@ -5192,7 +5082,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="E33" s="52">
+      <c r="E33" s="47">
         <v>46099</v>
       </c>
       <c r="F33" t="s">
@@ -5201,8 +5091,8 @@
       <c r="G33" s="13"/>
     </row>
     <row r="35" spans="4:7">
-      <c r="D35" s="53" t="s">
-        <v>211</v>
+      <c r="D35" s="48" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -5211,12 +5101,12 @@
     <mergeCell ref="D2:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:A19">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>IF(A2="", TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F33">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>IF(F5="", TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5485,12 +5375,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -5501,12 +5391,12 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -6449,7 +6339,7 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C34">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7521,11 +7411,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -7535,11 +7425,11 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>

--- a/2026.xlsx
+++ b/2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jadwal-imam-tarawih\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E964835D-3FC3-4DAE-A26F-8B586651C534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F92D8D-624F-4C24-B704-78028AD44385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -642,14 +642,21 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="[$-421]dddd\,\ dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-421]dddd\,\ dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -842,14 +849,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -873,43 +880,43 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -918,10 +925,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -933,76 +940,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1019,74 +1029,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-421]dddd\,\ dd\ mmmm\ yyyy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-421]dddd\,\ dd\ mmmm\ yyyy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1195,7 +1137,7 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-421]dddd\,\ dd\ mmmm\ yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="[$-421]dddd\,\ dd\ mmmm\ yyyy;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1269,7 +1211,31 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-421]dddd\,\ dd\ mmmm\ yyyy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1359,6 +1325,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="[$-421]dddd\,\ dd\ mmmm\ yyyy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1389,6 +1359,46 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1555,16 +1565,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F672EF5-F5A6-4182-8647-3A86B3566FAB}" name="Table1" displayName="Table1" ref="A5:E34" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F672EF5-F5A6-4182-8647-3A86B3566FAB}" name="Table1" displayName="Table1" ref="A5:E34" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="A5:E34" xr:uid="{7F672EF5-F5A6-4182-8647-3A86B3566FAB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EDA3354A-D911-4857-BDFD-2A76F68799B6}" name="Nomor" dataDxfId="26">
+    <tableColumn id="1" xr3:uid="{EDA3354A-D911-4857-BDFD-2A76F68799B6}" name="Nomor" dataDxfId="22">
       <calculatedColumnFormula>A5+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EE32957E-B020-43A5-93B6-4F4983A5B8C5}" name="Tanggal" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{EE32957E-B020-43A5-93B6-4F4983A5B8C5}" name="Tanggal" dataDxfId="21"/>
     <tableColumn id="3" xr3:uid="{474FEB94-AA9D-4225-84A8-CAE68BC78718}" name="Imam"/>
     <tableColumn id="4" xr3:uid="{E9CF7577-A218-4BFC-BD73-D8F2523F2B45}" name="Keterangan"/>
-    <tableColumn id="5" xr3:uid="{11BF8C20-01CD-49CD-96D6-A73B48384BCF}" name="Nomor WA" dataDxfId="25">
+    <tableColumn id="5" xr3:uid="{11BF8C20-01CD-49CD-96D6-A73B48384BCF}" name="Nomor WA" dataDxfId="20">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1573,15 +1583,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D9530C33-B6B5-4115-9923-45D7AFE34439}" name="Table35" displayName="Table35" ref="F38:H57" totalsRowShown="0" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D9530C33-B6B5-4115-9923-45D7AFE34439}" name="Table35" displayName="Table35" ref="F38:H57" totalsRowShown="0" tableBorderDxfId="19">
   <autoFilter ref="F38:H57" xr:uid="{D9530C33-B6B5-4115-9923-45D7AFE34439}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F39:G56">
     <sortCondition ref="F1:F19"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F724475A-A50A-4C3B-815A-F4FD22C8480A}" name="Nama" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{FF44FB9B-A317-41C3-9E91-41A8D60563FD}" name="Nomor WA" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{1A922AE0-1ED0-4A04-AAF7-5D85C9B067EF}" name="Pengulangan" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{F724475A-A50A-4C3B-815A-F4FD22C8480A}" name="Nama" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{FF44FB9B-A317-41C3-9E91-41A8D60563FD}" name="Nomor WA" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{1A922AE0-1ED0-4A04-AAF7-5D85C9B067EF}" name="Pengulangan" dataDxfId="16">
       <calculatedColumnFormula>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1590,16 +1600,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ED39EA5A-A81E-4D32-8B64-273C7A8F6950}" name="Table16" displayName="Table16" ref="K5:O34" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ED39EA5A-A81E-4D32-8B64-273C7A8F6950}" name="Table16" displayName="Table16" ref="K5:O34" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="K5:O34" xr:uid="{4CDDEFDD-9B9A-4132-B3F2-84E308C2EBE7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7DEC5B5B-9500-4D9B-A1CE-235D25215B3C}" name="Nomor" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{7DEC5B5B-9500-4D9B-A1CE-235D25215B3C}" name="Nomor" dataDxfId="14">
       <calculatedColumnFormula>K5+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{1E1369C1-C29E-4040-9295-EB68CA1DA6EB}" name="Tanggal" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{1E1369C1-C29E-4040-9295-EB68CA1DA6EB}" name="Tanggal" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{BCFEBDF1-F84F-4997-88AF-EBE87A6CECF2}" name="Imam"/>
     <tableColumn id="4" xr3:uid="{0425DBC4-EE39-4081-9C40-C58050634AC8}" name="Keterangan"/>
-    <tableColumn id="5" xr3:uid="{8DEC3263-BB8F-4EFB-B746-F94FE8E58523}" name="Nomor WA" dataDxfId="18">
+    <tableColumn id="5" xr3:uid="{8DEC3263-BB8F-4EFB-B746-F94FE8E58523}" name="Nomor WA" dataDxfId="12">
       <calculatedColumnFormula>VLOOKUP(Table16[[#This Row],[Imam]],Table35[#All],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1608,27 +1618,27 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2A622B11-EC89-4AF0-9DF4-FB14C2B1C37F}" name="Table3" displayName="Table3" ref="A1:B19" totalsRowShown="0" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2A622B11-EC89-4AF0-9DF4-FB14C2B1C37F}" name="Table3" displayName="Table3" ref="A1:B19" totalsRowShown="0" tableBorderDxfId="9">
   <autoFilter ref="A1:B19" xr:uid="{2A622B11-EC89-4AF0-9DF4-FB14C2B1C37F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B19">
     <sortCondition ref="A1:A19"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{2AB0227A-689E-434E-BE31-2D3674F24B79}" name="Nama"/>
-    <tableColumn id="2" xr3:uid="{BBECE007-5A72-4694-9062-83FE01F91734}" name="Nomor WA" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{BBECE007-5A72-4694-9062-83FE01F91734}" name="Nomor WA" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ADBB7919-983C-4A81-943C-7BE32581A239}" name="Table6" displayName="Table6" ref="D4:F33" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ADBB7919-983C-4A81-943C-7BE32581A239}" name="Table6" displayName="Table6" ref="D4:F33" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="D4:F33" xr:uid="{ADBB7919-983C-4A81-943C-7BE32581A239}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{06541388-4626-4805-B1F9-FC1821F3A31C}" name="Nomor" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{06541388-4626-4805-B1F9-FC1821F3A31C}" name="Nomor" dataDxfId="6">
       <calculatedColumnFormula>D4+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EE963465-C328-4312-B15E-4A20CF1192DA}" name="Tanggal" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{EE963465-C328-4312-B15E-4A20CF1192DA}" name="Tanggal" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{2319CD13-1A84-4F52-83BD-5FB5EB6DAAA8}" name="Imam"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1636,14 +1646,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B463BB1F-E51B-43C0-AA2F-E1D6DB3DDCF7}" name="Table2" displayName="Table2" ref="A1:B30" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B463BB1F-E51B-43C0-AA2F-E1D6DB3DDCF7}" name="Table2" displayName="Table2" ref="A1:B30" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:B30" xr:uid="{B463BB1F-E51B-43C0-AA2F-E1D6DB3DDCF7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A0750327-460A-4848-BB77-C819467CC83E}" name="Nama" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{97DD37ED-3D7B-4850-8D30-26BB8E10C618}" name="Nomor WA" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{A0750327-460A-4848-BB77-C819467CC83E}" name="Nama" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{97DD37ED-3D7B-4850-8D30-26BB8E10C618}" name="Nomor WA" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1910,7 +1920,7 @@
   <dimension ref="A2:AD84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1934,12 +1944,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1949,29 +1959,29 @@
       <c r="J2" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
@@ -2379,7 +2389,7 @@
       <c r="B12" s="46">
         <v>46077</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="49" t="s">
         <v>191</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -2648,7 +2658,7 @@
       <c r="L16" s="46">
         <v>46081</v>
       </c>
-      <c r="M16" s="53" t="s">
+      <c r="M16" s="50" t="s">
         <v>71</v>
       </c>
       <c r="N16" t="s">
@@ -2679,15 +2689,15 @@
       <c r="B17" s="46">
         <v>46082</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>63</v>
+      <c r="C17" s="54" t="s">
+        <v>135</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>143</v>
       </c>
       <c r="E17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Imam]],Table35[#All],2,FALSE)</f>
-        <v>+6285389333869</v>
+        <v>+6281324698218</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>43</v>
@@ -3731,17 +3741,17 @@
       <c r="AD35" s="11"/>
     </row>
     <row r="36" spans="1:30">
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
@@ -4069,7 +4079,7 @@
       </c>
       <c r="H50">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>43</v>
@@ -4169,7 +4179,7 @@
       </c>
       <c r="H55">
         <f>COUNTIF(Table1[Imam],Table35[[#This Row],[Nama]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>56</v>
@@ -4518,17 +4528,17 @@
     <mergeCell ref="K3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:C34 C40:C66">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>IF(C6="", TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>IF(F57="", TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H34">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
       <formula>C6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4545,7 +4555,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>IF(M9="", TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4587,11 +4597,11 @@
       <c r="B1" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
       <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7">
@@ -4601,11 +4611,11 @@
       <c r="B2" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="45"/>
     </row>
     <row r="3" spans="1:7">
@@ -5101,12 +5111,12 @@
     <mergeCell ref="D2:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:A19">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>IF(A2="", TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F33">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>IF(F5="", TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5375,12 +5385,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -5391,12 +5401,12 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -7411,11 +7421,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -7425,11 +7435,11 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
